--- a/data/USGS/data_usgs_mineral_yearbook_processed.xlsx
+++ b/data/USGS/data_usgs_mineral_yearbook_processed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regional_minerals_sustainability/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/USGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="982" documentId="8_{E5E6C802-A210-4BD1-9B6D-6A1674DD2CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8764B69E-BD9A-4DAA-BA92-7C9DC589FA3B}"/>
+  <xr:revisionPtr revIDLastSave="994" documentId="8_{E5E6C802-A210-4BD1-9B6D-6A1674DD2CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B0F5638-8CF9-441D-A815-87C1C8215A22}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="lithium" sheetId="5" r:id="rId13"/>
     <sheet name="rare_earths" sheetId="3" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">canada_prod!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="665">
   <si>
     <r>
       <t>Australia</t>
@@ -4927,6 +4930,9 @@
   </si>
   <si>
     <t>Metric tons, gross weight</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
 </sst>
 </file>
@@ -5080,7 +5086,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5096,6 +5102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5214,7 +5226,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5572,6 +5584,185 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5655,155 +5846,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6104,7 +6146,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6241,7 +6283,7 @@
       <c r="C14" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="127" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6255,7 +6297,7 @@
       <c r="C15" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="127" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6788,190 +6830,190 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="141"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="141"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="202"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
+      <c r="B33" s="202"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="144" t="s">
+      <c r="A35" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="144" t="s">
+      <c r="A36" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="141"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="202"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
+      <c r="B39" s="206"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="145"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
+      <c r="B40" s="206"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="144" t="s">
+      <c r="A41" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
+      <c r="B41" s="206"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="206"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7453,134 +7495,134 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="205"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="205" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
+      <c r="B28" s="205"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
@@ -8385,86 +8427,86 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A40" s="147" t="s">
+      <c r="A40" s="208" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="147"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
+      <c r="B40" s="208"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="208"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A41" s="148" t="s">
+      <c r="A41" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A42" s="148" t="s">
+      <c r="A42" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="209"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
     </row>
     <row r="43" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
+      <c r="B43" s="207"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="207"/>
+      <c r="F43" s="207"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
+      <c r="B44" s="207"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="207"/>
+      <c r="F44" s="207"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
     </row>
     <row r="45" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A45" s="146" t="s">
+      <c r="A45" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
+      <c r="B45" s="207"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="207"/>
+      <c r="F45" s="207"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:8" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="207" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
+      <c r="B46" s="207"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="207"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
     </row>
@@ -8513,31 +8555,31 @@
   <sheetData>
     <row r="1" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
-      <c r="B1" s="149">
+      <c r="B1" s="210">
         <v>2016</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149">
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210">
         <v>2017</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150" t="s">
+      <c r="F1" s="210"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="151">
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="212">
         <v>2019</v>
       </c>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151">
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212">
         <v>2020</v>
       </c>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
     </row>
     <row r="2" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -9877,74 +9919,74 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="214" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="215" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="215"/>
       <c r="G16" s="64"/>
       <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:8" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="215" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
       <c r="G17" s="64"/>
       <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="213" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
       <c r="G19" s="64"/>
       <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="152" t="s">
+      <c r="A20" s="213" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
     </row>
@@ -9965,67 +10007,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD5C7D-DEAC-4BFE-8605-451BD2406F50}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" style="181" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="171" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="171" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="171" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="8.44140625" style="159" customWidth="1"/>
-    <col min="11" max="16384" width="10" style="156"/>
+    <col min="1" max="1" width="34" style="129" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="141" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="141" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="141" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="141" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.44140625" style="131" customWidth="1"/>
+    <col min="11" max="16384" width="10" style="128"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="196" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
+    <row r="1" spans="1:11" s="184" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="183" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="183" t="s">
         <v>551</v>
       </c>
-      <c r="C1" s="193" t="s">
+      <c r="C1" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="193" t="s">
+      <c r="D1" s="183" t="s">
         <v>591</v>
       </c>
-      <c r="E1" s="194" t="s">
+      <c r="E1" s="183" t="s">
         <v>587</v>
       </c>
-      <c r="F1" s="195">
-        <v>2015</v>
-      </c>
-      <c r="G1" s="195">
+      <c r="F1" s="182" t="s">
+        <v>664</v>
+      </c>
+      <c r="G1" s="182">
         <v>2016</v>
       </c>
-      <c r="H1" s="195">
+      <c r="H1" s="182">
         <v>2017</v>
       </c>
-      <c r="I1" s="195">
+      <c r="I1" s="182">
         <v>2018</v>
       </c>
-      <c r="J1" s="195">
+      <c r="J1" s="182">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161" t="s">
+    <row r="2" spans="1:11" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="133" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="159" t="s">
         <v>592</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="159" t="s">
         <v>639</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E2" s="158" t="s">
+      <c r="E2" s="130" t="s">
         <v>663</v>
       </c>
       <c r="F2" s="5">
@@ -10044,20 +10086,20 @@
         <v>1522000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="133" t="s">
         <v>456</v>
       </c>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="159" t="s">
         <v>592</v>
       </c>
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="159" t="s">
         <v>640</v>
       </c>
-      <c r="D3" s="200" t="s">
+      <c r="D3" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E3" s="158" t="s">
+      <c r="E3" s="130" t="s">
         <v>663</v>
       </c>
       <c r="F3" s="5">
@@ -10076,20 +10118,20 @@
         <v>2853771</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="160" t="s">
+    <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="132" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="159" t="s">
         <v>593</v>
       </c>
-      <c r="C4" s="200" t="s">
+      <c r="C4" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="D4" s="200" t="s">
+      <c r="D4" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="130" t="s">
         <v>663</v>
       </c>
       <c r="F4" s="5">
@@ -10108,3078 +10150,3091 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="160" t="s">
+    <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="132" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" s="159" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F5" s="5">
+        <v>42000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="5">
+        <v>40000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="132" t="s">
         <v>458</v>
       </c>
-      <c r="B5" s="200" t="s">
+      <c r="B6" s="159" t="s">
         <v>662</v>
       </c>
-      <c r="C5" s="200" t="s">
+      <c r="C6" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="D5" s="200" t="s">
+      <c r="D6" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E5" s="158" t="s">
+      <c r="E6" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="5">
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="5">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161" t="s">
+    <row r="7" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="133" t="s">
         <v>459</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B7" s="159" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="200" t="s">
+      <c r="C7" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="D6" s="200" t="s">
+      <c r="D7" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E6" s="158" t="s">
+      <c r="E7" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <v>68</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="5">
         <v>60</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="5">
         <v>158</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I7" s="5">
         <v>148</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="5">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161" t="s">
+    <row r="8" spans="1:11" s="165" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="133" t="s">
         <v>460</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B8" s="159" t="s">
         <v>594</v>
       </c>
-      <c r="C7" s="200" t="s">
+      <c r="C8" s="159" t="s">
         <v>596</v>
       </c>
-      <c r="D7" s="200" t="s">
+      <c r="D8" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E7" s="158" t="s">
+      <c r="E8" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>1159</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <v>2305</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="5">
         <v>1802</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I8" s="5">
         <v>1857</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="5">
         <v>1803</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161" t="s">
+      <c r="K8" s="128"/>
+    </row>
+    <row r="9" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="133" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" s="159" t="s">
+        <v>613</v>
+      </c>
+      <c r="C9" s="159" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E9" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="5">
+        <v>11541</v>
+      </c>
+      <c r="G9" s="5">
+        <v>11383</v>
+      </c>
+      <c r="H9" s="5">
+        <v>12412</v>
+      </c>
+      <c r="I9" s="5">
+        <v>13184</v>
+      </c>
+      <c r="J9" s="5">
+        <v>13000</v>
+      </c>
+      <c r="K9" s="128"/>
+    </row>
+    <row r="10" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="133" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10" s="159" t="s">
+        <v>613</v>
+      </c>
+      <c r="C10" s="179" t="s">
+        <v>498</v>
+      </c>
+      <c r="D10" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E10" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F10" s="5">
+        <v>12167</v>
+      </c>
+      <c r="G10" s="5">
+        <v>11693</v>
+      </c>
+      <c r="H10" s="5">
+        <v>12706</v>
+      </c>
+      <c r="I10" s="5">
+        <v>13554</v>
+      </c>
+      <c r="J10" s="5">
+        <v>13200</v>
+      </c>
+      <c r="K10" s="128"/>
+    </row>
+    <row r="11" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="133" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" s="159" t="s">
+        <v>626</v>
+      </c>
+      <c r="C11" s="159" t="s">
+        <v>519</v>
+      </c>
+      <c r="D11" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E11" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4340</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4290</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4250</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3800</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3630</v>
+      </c>
+      <c r="K11" s="128"/>
+    </row>
+    <row r="12" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="133" t="s">
+        <v>520</v>
+      </c>
+      <c r="B12" s="159" t="s">
+        <v>626</v>
+      </c>
+      <c r="C12" s="159" t="s">
+        <v>520</v>
+      </c>
+      <c r="D12" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F12" s="5">
+        <v>8060</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7970</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7900</v>
+      </c>
+      <c r="I12" s="5">
+        <v>7060</v>
+      </c>
+      <c r="J12" s="5">
+        <v>6730</v>
+      </c>
+      <c r="K12" s="128"/>
+    </row>
+    <row r="13" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="133" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" s="159" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" s="159" t="s">
+        <v>521</v>
+      </c>
+      <c r="D13" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F13" s="137">
+        <v>27900</v>
+      </c>
+      <c r="G13" s="137">
+        <v>27600</v>
+      </c>
+      <c r="H13" s="137">
+        <v>27300</v>
+      </c>
+      <c r="I13" s="137">
+        <v>24400</v>
+      </c>
+      <c r="J13" s="137">
+        <v>23300</v>
+      </c>
+      <c r="K13" s="128"/>
+    </row>
+    <row r="14" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="133" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="159" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" s="159" t="s">
+        <v>522</v>
+      </c>
+      <c r="D14" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E14" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F14" s="139">
+        <v>21700</v>
+      </c>
+      <c r="G14" s="139">
+        <v>21500</v>
+      </c>
+      <c r="H14" s="139">
+        <v>21300</v>
+      </c>
+      <c r="I14" s="139">
+        <v>19000</v>
+      </c>
+      <c r="J14" s="139">
+        <v>18100</v>
+      </c>
+      <c r="K14" s="128"/>
+    </row>
+    <row r="15" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="159" t="s">
+        <v>626</v>
+      </c>
+      <c r="C15" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E15" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F15" s="134">
+        <v>62000</v>
+      </c>
+      <c r="G15" s="134">
+        <v>61300</v>
+      </c>
+      <c r="H15" s="134">
+        <v>60800</v>
+      </c>
+      <c r="I15" s="134">
+        <v>54300</v>
+      </c>
+      <c r="J15" s="134">
+        <v>51800</v>
+      </c>
+      <c r="K15" s="128"/>
+    </row>
+    <row r="16" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="200" t="s">
+      <c r="B16" s="162" t="s">
         <v>556</v>
       </c>
-      <c r="C8" s="200" t="s">
+      <c r="C16" s="162" t="s">
         <v>595</v>
       </c>
-      <c r="D8" s="200" t="s">
+      <c r="D16" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E8" s="158" t="s">
+      <c r="E16" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F16" s="168">
         <v>4339</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G16" s="168">
         <v>4216</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H16" s="168">
         <v>3704</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I16" s="168">
         <v>3279</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J16" s="168">
         <v>3336</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="161" t="s">
+    <row r="17" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="161" t="s">
         <v>462</v>
       </c>
-      <c r="B9" s="200" t="s">
+      <c r="B17" s="162" t="s">
         <v>556</v>
       </c>
-      <c r="C9" s="200" t="s">
+      <c r="C17" s="162" t="s">
         <v>462</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D17" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E9" s="158" t="s">
+      <c r="E17" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F17" s="164">
         <v>6126</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G17" s="164">
         <v>6302</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H17" s="164">
         <v>6355</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I17" s="164">
         <v>6349</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J17" s="164">
         <v>6075</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="161" t="s">
+    <row r="18" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="161" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="200" t="s">
+      <c r="B18" s="177" t="s">
         <v>557</v>
       </c>
-      <c r="C10" s="200" t="s">
+      <c r="C18" s="162" t="s">
         <v>633</v>
       </c>
-      <c r="D10" s="200" t="s">
+      <c r="D18" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E10" s="158" t="s">
+      <c r="E18" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F18" s="164">
         <v>714647</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G18" s="164">
         <v>693059</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H18" s="164">
         <v>594994</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I18" s="164">
         <v>548011</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J18" s="164">
         <v>572705</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="163" t="s">
+      <c r="K18" s="165"/>
+    </row>
+    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="200" t="s">
+      <c r="B19" s="177" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="200" t="s">
+      <c r="C19" s="162" t="s">
         <v>641</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D19" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E11" s="158" t="s">
+      <c r="E19" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F19" s="164">
         <v>281416</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G19" s="164">
         <v>304349</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H19" s="164">
         <v>289400</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I19" s="164">
         <v>290100</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J19" s="164">
         <v>290000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="163" t="s">
+      <c r="K19" s="165"/>
+    </row>
+    <row r="20" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="200" t="s">
+      <c r="B20" s="162" t="s">
         <v>557</v>
       </c>
-      <c r="C12" s="200" t="s">
+      <c r="C20" s="162" t="s">
         <v>642</v>
       </c>
-      <c r="D12" s="200" t="s">
+      <c r="D20" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E12" s="158" t="s">
+      <c r="E20" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F20" s="164">
         <v>28713</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G20" s="164">
         <v>29165</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H20" s="164">
         <v>31000</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I20" s="164">
         <v>30000</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J20" s="164">
         <v>30000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="164" t="s">
+      <c r="K20" s="165"/>
+    </row>
+    <row r="21" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="200" t="s">
+      <c r="B21" s="162" t="s">
         <v>557</v>
       </c>
-      <c r="C13" s="200" t="s">
+      <c r="C21" s="162" t="s">
         <v>643</v>
       </c>
-      <c r="D13" s="200" t="s">
+      <c r="D21" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E13" s="158" t="s">
+      <c r="E21" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F13" s="165">
+      <c r="F21" s="180">
         <v>310000</v>
       </c>
-      <c r="G13" s="165">
+      <c r="G21" s="180">
         <v>334000</v>
       </c>
-      <c r="H13" s="165">
+      <c r="H21" s="180">
         <v>320000</v>
       </c>
-      <c r="I13" s="165">
+      <c r="I21" s="180">
         <v>320000</v>
       </c>
-      <c r="J13" s="165">
+      <c r="J21" s="180">
         <v>320000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="164" t="s">
+      <c r="K21" s="165"/>
+    </row>
+    <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="200" t="s">
+      <c r="B22" s="162" t="s">
         <v>557</v>
       </c>
-      <c r="C14" s="200" t="s">
+      <c r="C22" s="162" t="s">
         <v>644</v>
       </c>
-      <c r="D14" s="200" t="s">
+      <c r="D22" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E14" s="158" t="s">
+      <c r="E22" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F14" s="167">
+      <c r="F22" s="180">
         <v>500</v>
       </c>
-      <c r="G14" s="168" t="s">
+      <c r="G22" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="168" t="s">
+      <c r="H22" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="168" t="s">
+      <c r="I22" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="168" t="s">
+      <c r="J22" s="181" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="164" t="s">
+      <c r="K22" s="165"/>
+    </row>
+    <row r="23" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="167" t="s">
         <v>645</v>
       </c>
-      <c r="B15" s="200" t="s">
+      <c r="B23" s="162" t="s">
         <v>557</v>
       </c>
-      <c r="C15" s="200" t="s">
+      <c r="C23" s="162" t="s">
         <v>645</v>
       </c>
-      <c r="D15" s="200" t="s">
+      <c r="D23" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E15" s="158" t="s">
+      <c r="E23" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F23" s="180">
         <v>301300</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G23" s="180">
         <v>284400</v>
       </c>
-      <c r="H15" s="162">
+      <c r="H23" s="180">
         <v>300700</v>
       </c>
-      <c r="I15" s="162">
+      <c r="I23" s="180">
         <v>259300</v>
       </c>
-      <c r="J15" s="162">
+      <c r="J23" s="180">
         <v>253100</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163" t="s">
+      <c r="K23" s="165"/>
+    </row>
+    <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="200" t="s">
+      <c r="B24" s="162" t="s">
         <v>557</v>
       </c>
-      <c r="C16" s="200" t="s">
+      <c r="C24" s="162" t="s">
         <v>646</v>
       </c>
-      <c r="D16" s="200" t="s">
+      <c r="D24" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E16" s="158" t="s">
+      <c r="E24" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F16" s="169">
+      <c r="F24" s="180">
         <v>29100</v>
       </c>
-      <c r="G16" s="169">
+      <c r="G24" s="180">
         <v>30000</v>
       </c>
-      <c r="H16" s="169">
+      <c r="H24" s="180">
         <v>29700</v>
       </c>
-      <c r="I16" s="169">
+      <c r="I24" s="180">
         <v>32000</v>
       </c>
-      <c r="J16" s="169">
+      <c r="J24" s="180">
         <v>28100</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164" t="s">
+      <c r="K24" s="165"/>
+    </row>
+    <row r="25" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="200" t="s">
+      <c r="B25" s="162" t="s">
         <v>557</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C25" s="162" t="s">
         <v>647</v>
       </c>
-      <c r="D17" s="200" t="s">
+      <c r="D25" s="162" t="s">
         <v>588</v>
       </c>
-      <c r="E17" s="158" t="s">
+      <c r="E25" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="F17" s="170">
+      <c r="F25" s="169">
         <v>330000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G25" s="164">
         <v>314000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H25" s="164">
         <v>330000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I25" s="164">
         <v>291000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J25" s="164">
         <v>281200</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="163" t="s">
+      <c r="K25" s="165"/>
+    </row>
+    <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="132" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26" s="159" t="s">
+        <v>615</v>
+      </c>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E26" s="130" t="s">
+        <v>500</v>
+      </c>
+      <c r="F26" s="5">
+        <v>11677</v>
+      </c>
+      <c r="G26" s="5">
+        <v>13036</v>
+      </c>
+      <c r="H26" s="5">
+        <v>23234</v>
+      </c>
+      <c r="I26" s="5">
+        <v>23194</v>
+      </c>
+      <c r="J26" s="5">
+        <v>18638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="132" t="s">
+        <v>501</v>
+      </c>
+      <c r="B27" s="159" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D27" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E27" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="F27" s="5">
+        <v>614</v>
+      </c>
+      <c r="G27" s="5">
+        <v>571</v>
+      </c>
+      <c r="H27" s="5">
+        <v>612</v>
+      </c>
+      <c r="I27" s="5">
+        <v>565</v>
+      </c>
+      <c r="J27" s="5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="B18" s="201" t="s">
+      <c r="B28" s="159" t="s">
         <v>597</v>
       </c>
-      <c r="C18" s="200" t="s">
+      <c r="C28" s="159" t="s">
         <v>598</v>
       </c>
-      <c r="D18" s="200" t="s">
+      <c r="D28" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E18" s="158" t="s">
+      <c r="E28" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F28" s="5">
         <v>8300</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G28" s="5">
         <v>9400</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H28" s="5">
         <v>11000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I28" s="5">
         <v>11000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J28" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163" t="s">
+    <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="135" t="s">
         <v>466</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B29" s="159" t="s">
         <v>597</v>
       </c>
-      <c r="C19" s="200" t="s">
+      <c r="C29" s="159" t="s">
         <v>466</v>
       </c>
-      <c r="D19" s="200" t="s">
+      <c r="D29" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E19" s="158" t="s">
+      <c r="E29" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F29" s="139">
         <v>5385</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G29" s="139">
         <v>6099</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H29" s="139">
         <v>6981</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I29" s="139">
         <v>7400</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J29" s="139">
         <v>6000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="161" t="s">
+    <row r="30" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="133" t="s">
         <v>467</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B30" s="159" t="s">
         <v>601</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200" t="s">
+      <c r="C30" s="159"/>
+      <c r="D30" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E20" s="158" t="s">
+      <c r="E30" s="130" t="s">
         <v>468</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F30" s="5">
         <v>38</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G30" s="5">
         <v>38</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H30" s="5">
         <v>40</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I30" s="5">
         <v>36</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J30" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="161" t="s">
+    <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="B21" s="200" t="s">
+      <c r="B31" s="159" t="s">
         <v>602</v>
       </c>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200" t="s">
+      <c r="C31" s="159"/>
+      <c r="D31" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E21" s="158" t="s">
+      <c r="E31" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F31" s="140">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G31" s="140">
         <v>1</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H31" s="140">
         <v>1</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I31" s="140">
         <v>1</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J31" s="140">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="160" t="s">
+    <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="132" t="s">
+        <v>502</v>
+      </c>
+      <c r="B32" s="159" t="s">
+        <v>502</v>
+      </c>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E32" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="5">
+        <v>35000</v>
+      </c>
+      <c r="J32" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="132" t="s">
+        <v>503</v>
+      </c>
+      <c r="B33" s="159" t="s">
+        <v>617</v>
+      </c>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E33" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F33" s="5">
+        <v>8233</v>
+      </c>
+      <c r="G33" s="5">
+        <v>154</v>
+      </c>
+      <c r="H33" s="5">
+        <v>89</v>
+      </c>
+      <c r="I33" s="5">
+        <v>87</v>
+      </c>
+      <c r="J33" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="132" t="s">
         <v>471</v>
       </c>
-      <c r="B22" s="200" t="s">
+      <c r="B34" s="159" t="s">
         <v>558</v>
       </c>
-      <c r="C22" s="200" t="s">
+      <c r="C34" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D34" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E22" s="158" t="s">
+      <c r="E34" s="130" t="s">
         <v>472</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F34" s="5">
         <v>160751</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G34" s="5">
         <v>161497</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H34" s="5">
         <v>172877</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I34" s="5">
         <v>191882</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J34" s="5">
         <v>174974</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="160" t="s">
+      <c r="K34" s="128"/>
+    </row>
+    <row r="35" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="170" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35" s="162" t="s">
+        <v>620</v>
+      </c>
+      <c r="C35" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="162" t="s">
+        <v>589</v>
+      </c>
+      <c r="E35" s="163" t="s">
+        <v>663</v>
+      </c>
+      <c r="F35" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="164">
+        <v>14000</v>
+      </c>
+      <c r="I35" s="164">
+        <v>11000</v>
+      </c>
+      <c r="J35" s="164">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="142" t="s">
+        <v>505</v>
+      </c>
+      <c r="B36" s="160" t="s">
+        <v>621</v>
+      </c>
+      <c r="C36" s="160"/>
+      <c r="D36" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E36" s="143" t="s">
+        <v>468</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1726</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1679</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3001</v>
+      </c>
+      <c r="I36" s="5">
+        <v>3240</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="132" t="s">
         <v>473</v>
       </c>
-      <c r="B23" s="200" t="s">
+      <c r="B37" s="159" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="200" t="s">
+      <c r="C37" s="159" t="s">
         <v>648</v>
       </c>
-      <c r="D23" s="200" t="s">
+      <c r="D37" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E23" s="158" t="s">
+      <c r="E37" s="143" t="s">
         <v>470</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F37" s="5">
         <v>70000</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G37" s="5">
         <v>71000</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H37" s="5">
         <v>67000</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I37" s="5">
         <v>58000</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J37" s="5">
         <v>61000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="161" t="s">
+    <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="133" t="s">
+        <v>483</v>
+      </c>
+      <c r="B38" s="159" t="s">
+        <v>604</v>
+      </c>
+      <c r="C38" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D38" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E38" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="F38" s="5">
+        <v>100</v>
+      </c>
+      <c r="G38" s="5">
+        <v>300</v>
+      </c>
+      <c r="H38" s="5">
+        <v>200</v>
+      </c>
+      <c r="I38" s="5">
+        <v>300</v>
+      </c>
+      <c r="J38" s="5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" s="159" t="s">
+        <v>614</v>
+      </c>
+      <c r="C39" s="159" t="s">
+        <v>475</v>
+      </c>
+      <c r="D39" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E39" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1502</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1399</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1608</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1670</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="B40" s="159" t="s">
+        <v>614</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>476</v>
+      </c>
+      <c r="D40" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E40" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F40" s="5">
+        <v>5851</v>
+      </c>
+      <c r="G40" s="5">
+        <v>6240</v>
+      </c>
+      <c r="H40" s="5">
+        <v>6306</v>
+      </c>
+      <c r="I40" s="5">
+        <v>6680</v>
+      </c>
+      <c r="J40" s="5">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="133" t="s">
+        <v>477</v>
+      </c>
+      <c r="B41" s="159" t="s">
+        <v>614</v>
+      </c>
+      <c r="C41" s="159" t="s">
+        <v>477</v>
+      </c>
+      <c r="D41" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E41" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F41" s="140">
+        <v>12473</v>
+      </c>
+      <c r="G41" s="140">
+        <v>12646</v>
+      </c>
+      <c r="H41" s="140">
+        <v>13208</v>
+      </c>
+      <c r="I41" s="140">
+        <v>13443</v>
+      </c>
+      <c r="J41" s="140">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="B24" s="200" t="s">
+      <c r="B42" s="176" t="s">
         <v>560</v>
       </c>
-      <c r="C24" s="200" t="s">
+      <c r="C42" s="176" t="s">
         <v>649</v>
       </c>
-      <c r="D24" s="200" t="s">
+      <c r="D42" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E24" s="158" t="s">
+      <c r="E42" s="130" t="s">
         <v>468</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F42" s="5">
         <v>46220</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G42" s="5">
         <v>46731</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H42" s="5">
         <v>50300</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I42" s="5">
         <v>52755</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J42" s="5">
         <v>58472</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="161" t="s">
+    <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="133" t="s">
         <v>474</v>
       </c>
-      <c r="B25" s="200" t="s">
+      <c r="B43" s="159" t="s">
         <v>560</v>
       </c>
-      <c r="C25" s="200" t="s">
+      <c r="C43" s="159" t="s">
         <v>650</v>
       </c>
-      <c r="D25" s="200" t="s">
+      <c r="D43" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E25" s="158" t="s">
+      <c r="E43" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F43" s="5">
         <v>27700</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G43" s="5">
         <v>28100</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H43" s="5">
         <v>30200</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I43" s="5">
         <v>31700</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J43" s="5">
         <v>35200</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161" t="s">
-        <v>475</v>
-      </c>
-      <c r="B26" s="200" t="s">
-        <v>614</v>
-      </c>
-      <c r="C26" s="200" t="s">
-        <v>475</v>
-      </c>
-      <c r="D26" s="200" t="s">
+    <row r="44" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="133" t="s">
+        <v>478</v>
+      </c>
+      <c r="B44" s="159" t="s">
+        <v>561</v>
+      </c>
+      <c r="C44" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D44" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E26" s="158" t="s">
+      <c r="E44" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F44" s="138">
+        <v>3699</v>
+      </c>
+      <c r="G44" s="138">
+        <v>12020</v>
+      </c>
+      <c r="H44" s="138">
+        <v>13494</v>
+      </c>
+      <c r="I44" s="138">
+        <v>15605</v>
+      </c>
+      <c r="J44" s="138">
+        <v>21782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="159" t="s">
+        <v>561</v>
+      </c>
+      <c r="C45" s="159" t="s">
+        <v>648</v>
+      </c>
+      <c r="D45" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E45" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F45" s="5">
+        <v>127264</v>
+      </c>
+      <c r="G45" s="5">
+        <v>142076</v>
+      </c>
+      <c r="H45" s="5">
+        <v>124555</v>
+      </c>
+      <c r="I45" s="5">
+        <v>120000</v>
+      </c>
+      <c r="J45" s="5">
+        <v>112909</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="159" t="s">
+        <v>561</v>
+      </c>
+      <c r="C46" s="159" t="s">
+        <v>646</v>
+      </c>
+      <c r="D46" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E46" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F46" s="138">
+        <v>141600</v>
+      </c>
+      <c r="G46" s="138">
+        <v>132150</v>
+      </c>
+      <c r="H46" s="138">
+        <v>149506</v>
+      </c>
+      <c r="I46" s="138">
+        <v>141000</v>
+      </c>
+      <c r="J46" s="138">
+        <v>147358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="159" t="s">
+        <v>561</v>
+      </c>
+      <c r="C47" s="159" t="s">
+        <v>647</v>
+      </c>
+      <c r="D47" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E47" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F47" s="5">
+        <v>269000</v>
+      </c>
+      <c r="G47" s="5">
+        <v>274000</v>
+      </c>
+      <c r="H47" s="5">
+        <v>274000</v>
+      </c>
+      <c r="I47" s="5">
+        <v>261000</v>
+      </c>
+      <c r="J47" s="5">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="132" t="s">
+        <v>506</v>
+      </c>
+      <c r="B48" s="159" t="s">
+        <v>506</v>
+      </c>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E48" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="F26" s="5">
-        <v>1502</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1399</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1608</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1670</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="161" t="s">
-        <v>476</v>
-      </c>
-      <c r="B27" s="200" t="s">
-        <v>614</v>
-      </c>
-      <c r="C27" s="200" t="s">
-        <v>476</v>
-      </c>
-      <c r="D27" s="200" t="s">
+      <c r="F48" s="5">
+        <v>1852</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1807</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1842</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1785</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="170" t="s">
+        <v>507</v>
+      </c>
+      <c r="B49" s="162" t="s">
+        <v>618</v>
+      </c>
+      <c r="C49" s="162" t="s">
+        <v>656</v>
+      </c>
+      <c r="D49" s="162" t="s">
+        <v>589</v>
+      </c>
+      <c r="E49" s="163" t="s">
+        <v>663</v>
+      </c>
+      <c r="F49" s="171" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="171" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="171" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="164">
+        <v>114000</v>
+      </c>
+      <c r="J49" s="164">
+        <v>9000</v>
+      </c>
+      <c r="K49" s="165"/>
+    </row>
+    <row r="50" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="132" t="s">
+        <v>508</v>
+      </c>
+      <c r="B50" s="159" t="s">
+        <v>657</v>
+      </c>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E50" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F50" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G50" s="5">
+        <v>150000</v>
+      </c>
+      <c r="H50" s="5">
+        <v>150000</v>
+      </c>
+      <c r="I50" s="5">
+        <v>150000</v>
+      </c>
+      <c r="J50" s="5">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="132" t="s">
+        <v>509</v>
+      </c>
+      <c r="B51" s="159" t="s">
+        <v>509</v>
+      </c>
+      <c r="C51" s="159"/>
+      <c r="D51" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E51" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="5">
+        <v>22000</v>
+      </c>
+      <c r="H51" s="5">
+        <v>22000</v>
+      </c>
+      <c r="I51" s="5">
+        <v>21000</v>
+      </c>
+      <c r="J51" s="5">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="132" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" s="159" t="s">
+        <v>562</v>
+      </c>
+      <c r="C52" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D52" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E27" s="158" t="s">
+      <c r="E52" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2505</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2783</v>
+      </c>
+      <c r="H52" s="5">
+        <v>4765</v>
+      </c>
+      <c r="I52" s="5">
+        <v>5048</v>
+      </c>
+      <c r="J52" s="5">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="132" t="s">
+        <v>523</v>
+      </c>
+      <c r="B53" s="159" t="s">
+        <v>563</v>
+      </c>
+      <c r="C53" s="159" t="s">
+        <v>659</v>
+      </c>
+      <c r="D53" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E53" s="130" t="s">
+        <v>524</v>
+      </c>
+      <c r="F53" s="5">
+        <v>154633</v>
+      </c>
+      <c r="G53" s="5">
+        <v>159854</v>
+      </c>
+      <c r="H53" s="5">
+        <v>166278</v>
+      </c>
+      <c r="I53" s="5">
+        <v>172725</v>
+      </c>
+      <c r="J53" s="5">
+        <v>170890</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="161" t="s">
+        <v>480</v>
+      </c>
+      <c r="B54" s="162" t="s">
+        <v>565</v>
+      </c>
+      <c r="C54" s="177" t="s">
+        <v>634</v>
+      </c>
+      <c r="D54" s="162" t="s">
+        <v>588</v>
+      </c>
+      <c r="E54" s="163" t="s">
+        <v>663</v>
+      </c>
+      <c r="F54" s="164">
+        <v>225351</v>
+      </c>
+      <c r="G54" s="164">
+        <v>230210</v>
+      </c>
+      <c r="H54" s="164">
+        <v>206354</v>
+      </c>
+      <c r="I54" s="164">
+        <v>177867</v>
+      </c>
+      <c r="J54" s="164">
+        <v>181410</v>
+      </c>
+      <c r="K54" s="165"/>
+    </row>
+    <row r="55" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="161" t="s">
+        <v>481</v>
+      </c>
+      <c r="B55" s="162" t="s">
+        <v>565</v>
+      </c>
+      <c r="C55" s="162" t="s">
+        <v>596</v>
+      </c>
+      <c r="D55" s="162" t="s">
+        <v>588</v>
+      </c>
+      <c r="E55" s="163" t="s">
+        <v>663</v>
+      </c>
+      <c r="F55" s="164">
+        <v>149716</v>
+      </c>
+      <c r="G55" s="164">
+        <v>158299</v>
+      </c>
+      <c r="H55" s="164">
+        <v>154759</v>
+      </c>
+      <c r="I55" s="164">
+        <v>137411</v>
+      </c>
+      <c r="J55" s="164">
+        <v>124736</v>
+      </c>
+      <c r="K55" s="165"/>
+    </row>
+    <row r="56" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="132" t="s">
+        <v>482</v>
+      </c>
+      <c r="B56" s="159" t="s">
+        <v>566</v>
+      </c>
+      <c r="C56" s="159" t="s">
+        <v>653</v>
+      </c>
+      <c r="D56" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E56" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="F56" s="138">
+        <v>5600000</v>
+      </c>
+      <c r="G56" s="138">
+        <v>6300000</v>
+      </c>
+      <c r="H56" s="138">
+        <v>7200000</v>
+      </c>
+      <c r="I56" s="138">
+        <v>7700000</v>
+      </c>
+      <c r="J56" s="138">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="132" t="s">
+        <v>510</v>
+      </c>
+      <c r="B57" s="159" t="s">
+        <v>622</v>
+      </c>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E57" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F57" s="5">
+        <v>4004000</v>
+      </c>
+      <c r="G57" s="5">
+        <v>4133000</v>
+      </c>
+      <c r="H57" s="5">
+        <v>3745000</v>
+      </c>
+      <c r="I57" s="5">
+        <v>3832000</v>
+      </c>
+      <c r="J57" s="5">
+        <v>3937000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="133" t="s">
+        <v>484</v>
+      </c>
+      <c r="B58" s="159" t="s">
+        <v>600</v>
+      </c>
+      <c r="C58" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D58" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E58" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="F27" s="5">
-        <v>5851</v>
-      </c>
-      <c r="G27" s="5">
-        <v>6240</v>
-      </c>
-      <c r="H27" s="5">
-        <v>6306</v>
-      </c>
-      <c r="I27" s="5">
-        <v>6680</v>
-      </c>
-      <c r="J27" s="5">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="161" t="s">
-        <v>477</v>
-      </c>
-      <c r="B28" s="200" t="s">
-        <v>614</v>
-      </c>
-      <c r="C28" s="200" t="s">
-        <v>477</v>
-      </c>
-      <c r="D28" s="200" t="s">
+      <c r="F58" s="5">
+        <v>24000</v>
+      </c>
+      <c r="G58" s="5">
+        <v>22000</v>
+      </c>
+      <c r="H58" s="5">
+        <v>19000</v>
+      </c>
+      <c r="I58" s="5">
+        <v>21000</v>
+      </c>
+      <c r="J58" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="165" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="132" t="s">
+        <v>525</v>
+      </c>
+      <c r="B59" s="159" t="s">
+        <v>567</v>
+      </c>
+      <c r="C59" s="159" t="s">
+        <v>567</v>
+      </c>
+      <c r="D59" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E59" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1297</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1452</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1459</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1306</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1259</v>
+      </c>
+      <c r="K59" s="128"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="133" t="s">
+        <v>526</v>
+      </c>
+      <c r="B60" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C60" s="159" t="s">
+        <v>526</v>
+      </c>
+      <c r="D60" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E60" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="F60" s="138">
+        <v>1601985</v>
+      </c>
+      <c r="G60" s="138">
+        <v>1631550</v>
+      </c>
+      <c r="H60" s="138">
+        <v>1838505</v>
+      </c>
+      <c r="I60" s="138">
+        <v>2007865</v>
+      </c>
+      <c r="J60" s="138">
+        <v>2062615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="133" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C61" s="159" t="s">
+        <v>637</v>
+      </c>
+      <c r="D61" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E61" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F61" s="138">
+        <v>317563</v>
+      </c>
+      <c r="G61" s="138">
+        <v>360328</v>
+      </c>
+      <c r="H61" s="138">
+        <v>370508</v>
+      </c>
+      <c r="I61" s="138">
+        <v>236285</v>
+      </c>
+      <c r="J61" s="138">
+        <v>248900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="165" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="133" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C62" s="159" t="s">
+        <v>596</v>
+      </c>
+      <c r="D62" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E62" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="128"/>
+    </row>
+    <row r="63" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="135" t="s">
+        <v>529</v>
+      </c>
+      <c r="B63" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" s="159" t="s">
+        <v>529</v>
+      </c>
+      <c r="D63" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E63" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F63" s="5">
+        <v>25445</v>
+      </c>
+      <c r="G63" s="5">
+        <v>28892</v>
+      </c>
+      <c r="H63" s="5">
+        <v>31388</v>
+      </c>
+      <c r="I63" s="5">
+        <v>25000</v>
+      </c>
+      <c r="J63" s="5">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="135" t="s">
+        <v>530</v>
+      </c>
+      <c r="B64" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C64" s="159" t="s">
+        <v>530</v>
+      </c>
+      <c r="D64" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E64" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F64" s="5">
+        <v>176595</v>
+      </c>
+      <c r="G64" s="5">
+        <v>175300</v>
+      </c>
+      <c r="H64" s="5">
+        <v>193261</v>
+      </c>
+      <c r="I64" s="5">
+        <v>208000</v>
+      </c>
+      <c r="J64" s="5">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="135" t="s">
+        <v>531</v>
+      </c>
+      <c r="B65" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C65" s="159" t="s">
+        <v>628</v>
+      </c>
+      <c r="D65" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E65" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="136" t="s">
+        <v>532</v>
+      </c>
+      <c r="B66" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C66" s="159" t="s">
+        <v>532</v>
+      </c>
+      <c r="D66" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E66" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F66" s="5">
+        <v>31263</v>
+      </c>
+      <c r="G66" s="5">
+        <v>27150</v>
+      </c>
+      <c r="H66" s="5">
+        <v>31275</v>
+      </c>
+      <c r="I66" s="5">
+        <v>21000</v>
+      </c>
+      <c r="J66" s="5">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="136" t="s">
+        <v>533</v>
+      </c>
+      <c r="B67" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C67" s="159" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E67" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F67" s="5">
+        <v>35206</v>
+      </c>
+      <c r="G67" s="5">
+        <v>26936</v>
+      </c>
+      <c r="H67" s="5">
+        <v>25653</v>
+      </c>
+      <c r="I67" s="5">
+        <v>21000</v>
+      </c>
+      <c r="J67" s="5">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="135" t="s">
+        <v>534</v>
+      </c>
+      <c r="B68" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C68" s="159" t="s">
+        <v>629</v>
+      </c>
+      <c r="D68" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E68" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="136" t="s">
+        <v>535</v>
+      </c>
+      <c r="B69" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C69" s="159" t="s">
+        <v>535</v>
+      </c>
+      <c r="D69" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E69" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F69" s="5">
+        <v>26810</v>
+      </c>
+      <c r="G69" s="5">
+        <v>35954</v>
+      </c>
+      <c r="H69" s="5">
+        <v>44463</v>
+      </c>
+      <c r="I69" s="5">
+        <v>69000</v>
+      </c>
+      <c r="J69" s="5">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="136" t="s">
+        <v>536</v>
+      </c>
+      <c r="B70" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" s="159" t="s">
+        <v>536</v>
+      </c>
+      <c r="D70" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E70" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F70" s="139">
+        <v>258126</v>
+      </c>
+      <c r="G70" s="139">
+        <v>271848</v>
+      </c>
+      <c r="H70" s="139">
+        <v>284326</v>
+      </c>
+      <c r="I70" s="139">
+        <v>291000</v>
+      </c>
+      <c r="J70" s="139">
+        <v>263000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="135" t="s">
+        <v>537</v>
+      </c>
+      <c r="B71" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C71" s="159" t="s">
+        <v>630</v>
+      </c>
+      <c r="D71" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E71" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F71" s="5">
+        <v>9717</v>
+      </c>
+      <c r="G71" s="5">
+        <v>7893</v>
+      </c>
+      <c r="H71" s="5">
+        <v>7119</v>
+      </c>
+      <c r="I71" s="5">
+        <v>5700</v>
+      </c>
+      <c r="J71" s="5">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C72" s="159" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E72" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F72" s="140">
+        <v>84688</v>
+      </c>
+      <c r="G72" s="140">
+        <v>86467</v>
+      </c>
+      <c r="H72" s="140">
+        <v>65940</v>
+      </c>
+      <c r="I72" s="140">
+        <v>53000</v>
+      </c>
+      <c r="J72" s="140">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C73" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E73" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F73" s="5">
+        <v>648000</v>
+      </c>
+      <c r="G73" s="5">
+        <v>660000</v>
+      </c>
+      <c r="H73" s="5">
+        <v>683000</v>
+      </c>
+      <c r="I73" s="5">
+        <v>694000</v>
+      </c>
+      <c r="J73" s="5">
+        <v>628000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="133" t="s">
+        <v>485</v>
+      </c>
+      <c r="B74" s="159" t="s">
+        <v>599</v>
+      </c>
+      <c r="C74" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D74" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E28" s="158" t="s">
+      <c r="E74" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="F28" s="5">
-        <v>12473</v>
-      </c>
-      <c r="G28" s="5">
-        <v>12646</v>
-      </c>
-      <c r="H28" s="5">
-        <v>13208</v>
-      </c>
-      <c r="I28" s="5">
-        <v>13443</v>
-      </c>
-      <c r="J28" s="5">
-        <v>12790</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="161" t="s">
-        <v>478</v>
-      </c>
-      <c r="B29" s="200" t="s">
-        <v>561</v>
-      </c>
-      <c r="C29" s="200" t="s">
+      <c r="F74" s="5">
+        <v>8600</v>
+      </c>
+      <c r="G74" s="5">
+        <v>8400</v>
+      </c>
+      <c r="H74" s="5">
+        <v>7600</v>
+      </c>
+      <c r="I74" s="5">
+        <v>7600</v>
+      </c>
+      <c r="J74" s="5">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="178" t="s">
+        <v>607</v>
+      </c>
+      <c r="C75" s="159" t="s">
+        <v>651</v>
+      </c>
+      <c r="D75" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E75" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F75" s="5">
+        <v>33600</v>
+      </c>
+      <c r="G75" s="5">
+        <v>31600</v>
+      </c>
+      <c r="H75" s="5">
+        <v>27400</v>
+      </c>
+      <c r="I75" s="5">
+        <v>29900</v>
+      </c>
+      <c r="J75" s="5">
+        <v>28600</v>
+      </c>
+      <c r="K75" s="144"/>
+    </row>
+    <row r="76" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="132" t="s">
+        <v>511</v>
+      </c>
+      <c r="B76" s="159" t="s">
+        <v>623</v>
+      </c>
+      <c r="C76" s="159" t="s">
+        <v>623</v>
+      </c>
+      <c r="D76" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E76" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="F76" s="5">
+        <v>11462</v>
+      </c>
+      <c r="G76" s="5">
+        <v>10790</v>
+      </c>
+      <c r="H76" s="5">
+        <v>12563</v>
+      </c>
+      <c r="I76" s="5">
+        <v>14024</v>
+      </c>
+      <c r="J76" s="5">
+        <v>12770</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="133" t="s">
+        <v>486</v>
+      </c>
+      <c r="B77" s="159" t="s">
+        <v>605</v>
+      </c>
+      <c r="C77" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="D29" s="200" t="s">
+      <c r="D77" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E29" s="158" t="s">
+      <c r="E77" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F77" s="5">
+        <v>600</v>
+      </c>
+      <c r="G77" s="5">
+        <v>600</v>
+      </c>
+      <c r="H77" s="5">
+        <v>60</v>
+      </c>
+      <c r="I77" s="5">
+        <v>300</v>
+      </c>
+      <c r="J77" s="5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="133" t="s">
+        <v>487</v>
+      </c>
+      <c r="B78" s="159" t="s">
+        <v>606</v>
+      </c>
+      <c r="C78" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D78" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E78" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F78" s="140">
+        <v>300</v>
+      </c>
+      <c r="G78" s="140">
+        <v>300</v>
+      </c>
+      <c r="H78" s="140">
+        <v>500</v>
+      </c>
+      <c r="I78" s="140">
+        <v>700</v>
+      </c>
+      <c r="J78" s="140">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="132" t="s">
+        <v>512</v>
+      </c>
+      <c r="B79" s="159" t="s">
+        <v>512</v>
+      </c>
+      <c r="C79" s="159"/>
+      <c r="D79" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E79" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F79" s="5">
+        <v>14343</v>
+      </c>
+      <c r="G79" s="5">
+        <v>10252</v>
+      </c>
+      <c r="H79" s="5">
+        <v>11424</v>
+      </c>
+      <c r="I79" s="5">
+        <v>10713</v>
+      </c>
+      <c r="J79" s="5">
+        <v>10243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="132" t="s">
+        <v>513</v>
+      </c>
+      <c r="B80" s="159" t="s">
+        <v>632</v>
+      </c>
+      <c r="C80" s="159"/>
+      <c r="D80" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E80" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F80" s="5">
+        <v>2053</v>
+      </c>
+      <c r="G80" s="5">
+        <v>2256</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2540</v>
+      </c>
+      <c r="I80" s="5">
+        <v>4864</v>
+      </c>
+      <c r="J80" s="5">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="133" t="s">
+        <v>514</v>
+      </c>
+      <c r="B81" s="159" t="s">
+        <v>632</v>
+      </c>
+      <c r="C81" s="159" t="s">
+        <v>658</v>
+      </c>
+      <c r="D81" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E81" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F81" s="5">
+        <v>228030</v>
+      </c>
+      <c r="G81" s="5">
+        <v>280550</v>
+      </c>
+      <c r="H81" s="5">
+        <v>231219</v>
+      </c>
+      <c r="I81" s="5">
+        <v>245815</v>
+      </c>
+      <c r="J81" s="5">
+        <v>243818</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="132" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" s="159" t="s">
+        <v>573</v>
+      </c>
+      <c r="C82" s="159" t="s">
+        <v>652</v>
+      </c>
+      <c r="D82" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E82" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F82" s="5">
+        <v>156000</v>
+      </c>
+      <c r="G82" s="5">
+        <v>175000</v>
+      </c>
+      <c r="H82" s="5">
+        <v>72000</v>
+      </c>
+      <c r="I82" s="5">
+        <v>85000</v>
+      </c>
+      <c r="J82" s="5">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="132" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" s="176" t="s">
+        <v>608</v>
+      </c>
+      <c r="C83" s="159" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E83" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="F83" s="139">
+        <v>30</v>
+      </c>
+      <c r="G83" s="139">
+        <v>27</v>
+      </c>
+      <c r="H83" s="139">
+        <v>28</v>
+      </c>
+      <c r="I83" s="139">
+        <v>34</v>
+      </c>
+      <c r="J83" s="139">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="133" t="s">
+        <v>490</v>
+      </c>
+      <c r="B84" s="159" t="s">
+        <v>574</v>
+      </c>
+      <c r="C84" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D84" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E84" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="F84" s="134">
+        <v>371000</v>
+      </c>
+      <c r="G84" s="134">
+        <v>385000</v>
+      </c>
+      <c r="H84" s="134">
+        <v>368000</v>
+      </c>
+      <c r="I84" s="134">
+        <v>392000</v>
+      </c>
+      <c r="J84" s="134">
+        <v>379000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="133" t="s">
+        <v>460</v>
+      </c>
+      <c r="B85" s="159" t="s">
+        <v>574</v>
+      </c>
+      <c r="C85" s="159" t="s">
+        <v>648</v>
+      </c>
+      <c r="D85" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E85" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1891692</v>
+      </c>
+      <c r="G85" s="5">
+        <v>1877394</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1758682</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1700000</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="133" t="s">
+        <v>515</v>
+      </c>
+      <c r="B86" s="159" t="s">
+        <v>624</v>
+      </c>
+      <c r="C86" s="159" t="s">
+        <v>624</v>
+      </c>
+      <c r="D86" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E86" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F86" s="138">
+        <v>158034</v>
+      </c>
+      <c r="G86" s="138">
+        <v>160016</v>
+      </c>
+      <c r="H86" s="138">
+        <v>169518</v>
+      </c>
+      <c r="I86" s="138">
+        <v>188974</v>
+      </c>
+      <c r="J86" s="138">
+        <v>177733</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" s="159" t="s">
+        <v>625</v>
+      </c>
+      <c r="C87" s="159" t="s">
+        <v>516</v>
+      </c>
+      <c r="D87" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E87" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F87" s="5">
+        <v>558</v>
+      </c>
+      <c r="G87" s="5">
+        <v>635</v>
+      </c>
+      <c r="H87" s="5">
+        <v>524</v>
+      </c>
+      <c r="I87" s="5">
+        <v>505</v>
+      </c>
+      <c r="J87" s="5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="133" t="s">
+        <v>517</v>
+      </c>
+      <c r="B88" s="159" t="s">
+        <v>625</v>
+      </c>
+      <c r="C88" s="159" t="s">
+        <v>517</v>
+      </c>
+      <c r="D88" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E88" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F88" s="138">
+        <v>5187</v>
+      </c>
+      <c r="G88" s="138">
+        <v>4746</v>
+      </c>
+      <c r="H88" s="138">
+        <v>4803</v>
+      </c>
+      <c r="I88" s="138">
+        <v>4828</v>
+      </c>
+      <c r="J88" s="138">
+        <v>6418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="159" t="s">
+        <v>625</v>
+      </c>
+      <c r="C89" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E89" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F89" s="5">
+        <v>5750</v>
+      </c>
+      <c r="G89" s="5">
+        <v>5380</v>
+      </c>
+      <c r="H89" s="5">
+        <v>5330</v>
+      </c>
+      <c r="I89" s="5">
+        <v>5330</v>
+      </c>
+      <c r="J89" s="5">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="132" t="s">
+        <v>518</v>
+      </c>
+      <c r="B90" s="159" t="s">
+        <v>619</v>
+      </c>
+      <c r="C90" s="159" t="s">
+        <v>636</v>
+      </c>
+      <c r="D90" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E90" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F90" s="138">
+        <v>175</v>
+      </c>
+      <c r="G90" s="138">
+        <v>199</v>
+      </c>
+      <c r="H90" s="138">
+        <v>215</v>
+      </c>
+      <c r="I90" s="138">
+        <v>279</v>
+      </c>
+      <c r="J90" s="138">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="132" t="s">
+        <v>491</v>
+      </c>
+      <c r="B91" s="159" t="s">
+        <v>609</v>
+      </c>
+      <c r="C91" s="159" t="s">
+        <v>596</v>
+      </c>
+      <c r="D91" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E91" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F91" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G91" s="5">
+        <v>18000</v>
+      </c>
+      <c r="H91" s="5">
+        <v>49000</v>
+      </c>
+      <c r="I91" s="5">
+        <v>40000</v>
+      </c>
+      <c r="J91" s="5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="132" t="s">
+        <v>492</v>
+      </c>
+      <c r="B92" s="159" t="s">
+        <v>610</v>
+      </c>
+      <c r="C92" s="159" t="s">
+        <v>654</v>
+      </c>
+      <c r="D92" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="E92" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F29" s="167">
-        <v>3699</v>
-      </c>
-      <c r="G29" s="167">
-        <v>12020</v>
-      </c>
-      <c r="H29" s="167">
-        <v>13494</v>
-      </c>
-      <c r="I29" s="167">
-        <v>15605</v>
-      </c>
-      <c r="J29" s="167">
-        <v>21782</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="163" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="200" t="s">
-        <v>561</v>
-      </c>
-      <c r="C30" s="200" t="s">
-        <v>648</v>
-      </c>
-      <c r="D30" s="200" t="s">
+      <c r="F92" s="5">
+        <v>700000</v>
+      </c>
+      <c r="G92" s="5">
+        <v>700000</v>
+      </c>
+      <c r="H92" s="5">
+        <v>800000</v>
+      </c>
+      <c r="I92" s="5">
+        <v>700000</v>
+      </c>
+      <c r="J92" s="5">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="132" t="s">
+        <v>493</v>
+      </c>
+      <c r="B93" s="159" t="s">
+        <v>611</v>
+      </c>
+      <c r="C93" s="159" t="s">
+        <v>635</v>
+      </c>
+      <c r="D93" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E30" s="158" t="s">
+      <c r="E93" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F30" s="5">
-        <v>127264</v>
-      </c>
-      <c r="G30" s="5">
-        <v>142076</v>
-      </c>
-      <c r="H30" s="5">
-        <v>124555</v>
-      </c>
-      <c r="I30" s="5">
-        <v>120000</v>
-      </c>
-      <c r="J30" s="5">
-        <v>112909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="163" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="200" t="s">
-        <v>561</v>
-      </c>
-      <c r="C31" s="200" t="s">
-        <v>646</v>
-      </c>
-      <c r="D31" s="200" t="s">
+      <c r="F93" s="5">
+        <v>1600</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="132" t="s">
+        <v>538</v>
+      </c>
+      <c r="B94" s="159" t="s">
+        <v>631</v>
+      </c>
+      <c r="C94" s="159" t="s">
+        <v>638</v>
+      </c>
+      <c r="D94" s="159" t="s">
+        <v>590</v>
+      </c>
+      <c r="E94" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="F94" s="140">
+        <v>13279</v>
+      </c>
+      <c r="G94" s="140">
+        <v>14133</v>
+      </c>
+      <c r="H94" s="140">
+        <v>12207</v>
+      </c>
+      <c r="I94" s="140">
+        <v>6975</v>
+      </c>
+      <c r="J94" s="140">
+        <v>6796</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="133" t="s">
+        <v>494</v>
+      </c>
+      <c r="B95" s="159" t="s">
+        <v>577</v>
+      </c>
+      <c r="C95" s="159" t="s">
+        <v>595</v>
+      </c>
+      <c r="D95" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E31" s="158" t="s">
+      <c r="E95" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F31" s="169">
-        <v>141600</v>
-      </c>
-      <c r="G31" s="169">
-        <v>132150</v>
-      </c>
-      <c r="H31" s="169">
-        <v>149506</v>
-      </c>
-      <c r="I31" s="169">
-        <v>141000</v>
-      </c>
-      <c r="J31" s="169">
-        <v>147358</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="164" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="200" t="s">
-        <v>561</v>
-      </c>
-      <c r="C32" s="200" t="s">
-        <v>647</v>
-      </c>
-      <c r="D32" s="200" t="s">
+      <c r="F95" s="5">
+        <v>275410</v>
+      </c>
+      <c r="G95" s="5">
+        <v>301210</v>
+      </c>
+      <c r="H95" s="5">
+        <v>305314</v>
+      </c>
+      <c r="I95" s="5">
+        <v>304964</v>
+      </c>
+      <c r="J95" s="5">
+        <v>335806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="133" t="s">
+        <v>495</v>
+      </c>
+      <c r="B96" s="159" t="s">
+        <v>577</v>
+      </c>
+      <c r="C96" s="159" t="s">
+        <v>655</v>
+      </c>
+      <c r="D96" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="E32" s="158" t="s">
+      <c r="E96" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="F32" s="5">
-        <v>269000</v>
-      </c>
-      <c r="G32" s="5">
-        <v>274000</v>
-      </c>
-      <c r="H32" s="5">
-        <v>274000</v>
-      </c>
-      <c r="I32" s="5">
-        <v>261000</v>
-      </c>
-      <c r="J32" s="5">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="160" t="s">
-        <v>479</v>
-      </c>
-      <c r="B33" s="200" t="s">
-        <v>562</v>
-      </c>
-      <c r="C33" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D33" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E33" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2505</v>
-      </c>
-      <c r="G33" s="5">
-        <v>2783</v>
-      </c>
-      <c r="H33" s="5">
-        <v>4765</v>
-      </c>
-      <c r="I33" s="5">
-        <v>5048</v>
-      </c>
-      <c r="J33" s="5">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="161" t="s">
-        <v>480</v>
-      </c>
-      <c r="B34" s="200" t="s">
-        <v>565</v>
-      </c>
-      <c r="C34" s="200" t="s">
-        <v>634</v>
-      </c>
-      <c r="D34" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E34" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F34" s="5">
-        <v>225351</v>
-      </c>
-      <c r="G34" s="5">
-        <v>230210</v>
-      </c>
-      <c r="H34" s="5">
-        <v>206354</v>
-      </c>
-      <c r="I34" s="5">
-        <v>177867</v>
-      </c>
-      <c r="J34" s="5">
-        <v>181410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="161" t="s">
-        <v>481</v>
-      </c>
-      <c r="B35" s="200" t="s">
-        <v>565</v>
-      </c>
-      <c r="C35" s="200" t="s">
-        <v>596</v>
-      </c>
-      <c r="D35" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E35" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F35" s="5">
-        <v>149716</v>
-      </c>
-      <c r="G35" s="5">
-        <v>158299</v>
-      </c>
-      <c r="H35" s="5">
-        <v>154759</v>
-      </c>
-      <c r="I35" s="5">
-        <v>137411</v>
-      </c>
-      <c r="J35" s="5">
-        <v>124736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="172" t="s">
-        <v>482</v>
-      </c>
-      <c r="B36" s="202" t="s">
-        <v>566</v>
-      </c>
-      <c r="C36" s="202" t="s">
-        <v>653</v>
-      </c>
-      <c r="D36" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E36" s="173" t="s">
-        <v>472</v>
-      </c>
-      <c r="F36" s="166">
-        <v>5600000</v>
-      </c>
-      <c r="G36" s="166">
-        <v>6300000</v>
-      </c>
-      <c r="H36" s="166">
-        <v>7200000</v>
-      </c>
-      <c r="I36" s="166">
-        <v>7700000</v>
-      </c>
-      <c r="J36" s="166">
-        <v>6800000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="161" t="s">
-        <v>483</v>
-      </c>
-      <c r="B37" s="200" t="s">
-        <v>604</v>
-      </c>
-      <c r="C37" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D37" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E37" s="173" t="s">
-        <v>472</v>
-      </c>
-      <c r="F37" s="5">
-        <v>100</v>
-      </c>
-      <c r="G37" s="5">
-        <v>300</v>
-      </c>
-      <c r="H37" s="5">
-        <v>200</v>
-      </c>
-      <c r="I37" s="5">
-        <v>300</v>
-      </c>
-      <c r="J37" s="5">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161" t="s">
-        <v>484</v>
-      </c>
-      <c r="B38" s="200" t="s">
-        <v>600</v>
-      </c>
-      <c r="C38" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D38" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E38" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F38" s="5">
-        <v>24000</v>
-      </c>
-      <c r="G38" s="5">
-        <v>22000</v>
-      </c>
-      <c r="H38" s="5">
-        <v>19000</v>
-      </c>
-      <c r="I38" s="5">
-        <v>21000</v>
-      </c>
-      <c r="J38" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="161" t="s">
-        <v>485</v>
-      </c>
-      <c r="B39" s="200" t="s">
-        <v>599</v>
-      </c>
-      <c r="C39" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D39" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E39" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F39" s="5">
-        <v>8600</v>
-      </c>
-      <c r="G39" s="5">
-        <v>8400</v>
-      </c>
-      <c r="H39" s="5">
-        <v>7600</v>
-      </c>
-      <c r="I39" s="5">
-        <v>7600</v>
-      </c>
-      <c r="J39" s="5">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="161" t="s">
-        <v>486</v>
-      </c>
-      <c r="B40" s="200" t="s">
-        <v>605</v>
-      </c>
-      <c r="C40" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D40" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E40" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F40" s="5">
-        <v>600</v>
-      </c>
-      <c r="G40" s="5">
-        <v>600</v>
-      </c>
-      <c r="H40" s="5">
-        <v>60</v>
-      </c>
-      <c r="I40" s="5">
-        <v>300</v>
-      </c>
-      <c r="J40" s="5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="161" t="s">
-        <v>487</v>
-      </c>
-      <c r="B41" s="200" t="s">
-        <v>606</v>
-      </c>
-      <c r="C41" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D41" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E41" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F41" s="169">
-        <v>300</v>
-      </c>
-      <c r="G41" s="169">
-        <v>300</v>
-      </c>
-      <c r="H41" s="169">
-        <v>500</v>
-      </c>
-      <c r="I41" s="169">
-        <v>700</v>
-      </c>
-      <c r="J41" s="169">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="203" t="s">
-        <v>607</v>
-      </c>
-      <c r="C42" s="201" t="s">
-        <v>651</v>
-      </c>
-      <c r="D42" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E42" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F42" s="5">
-        <v>33600</v>
-      </c>
-      <c r="G42" s="5">
-        <v>31600</v>
-      </c>
-      <c r="H42" s="5">
-        <v>27400</v>
-      </c>
-      <c r="I42" s="5">
-        <v>29900</v>
-      </c>
-      <c r="J42" s="5">
-        <v>28600</v>
-      </c>
-      <c r="K42" s="175"/>
-    </row>
-    <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="160" t="s">
-        <v>488</v>
-      </c>
-      <c r="B43" s="200" t="s">
-        <v>573</v>
-      </c>
-      <c r="C43" s="200" t="s">
-        <v>652</v>
-      </c>
-      <c r="D43" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E43" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F43" s="5">
-        <v>156000</v>
-      </c>
-      <c r="G43" s="5">
-        <v>175000</v>
-      </c>
-      <c r="H43" s="5">
-        <v>72000</v>
-      </c>
-      <c r="I43" s="5">
-        <v>85000</v>
-      </c>
-      <c r="J43" s="5">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="160" t="s">
-        <v>489</v>
-      </c>
-      <c r="B44" s="200" t="s">
-        <v>608</v>
-      </c>
-      <c r="C44" s="200" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E44" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="F44" s="5">
-        <v>30</v>
-      </c>
-      <c r="G44" s="5">
-        <v>27</v>
-      </c>
-      <c r="H44" s="5">
-        <v>28</v>
-      </c>
-      <c r="I44" s="5">
-        <v>34</v>
-      </c>
-      <c r="J44" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="161" t="s">
-        <v>490</v>
-      </c>
-      <c r="B45" s="200" t="s">
-        <v>574</v>
-      </c>
-      <c r="C45" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D45" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E45" s="158" t="s">
-        <v>472</v>
-      </c>
-      <c r="F45" s="5">
-        <v>371000</v>
-      </c>
-      <c r="G45" s="5">
-        <v>385000</v>
-      </c>
-      <c r="H45" s="5">
-        <v>368000</v>
-      </c>
-      <c r="I45" s="5">
-        <v>392000</v>
-      </c>
-      <c r="J45" s="5">
-        <v>379000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="161" t="s">
-        <v>460</v>
-      </c>
-      <c r="B46" s="200" t="s">
-        <v>574</v>
-      </c>
-      <c r="C46" s="200" t="s">
-        <v>648</v>
-      </c>
-      <c r="D46" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E46" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1891692</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1877394</v>
-      </c>
-      <c r="H46" s="5">
-        <v>1758682</v>
-      </c>
-      <c r="I46" s="5">
-        <v>1700000</v>
-      </c>
-      <c r="J46" s="5">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="160" t="s">
-        <v>491</v>
-      </c>
-      <c r="B47" s="200" t="s">
-        <v>609</v>
-      </c>
-      <c r="C47" s="200" t="s">
-        <v>596</v>
-      </c>
-      <c r="D47" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E47" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F47" s="5">
-        <v>10000</v>
-      </c>
-      <c r="G47" s="5">
-        <v>18000</v>
-      </c>
-      <c r="H47" s="5">
-        <v>49000</v>
-      </c>
-      <c r="I47" s="5">
-        <v>40000</v>
-      </c>
-      <c r="J47" s="5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="160" t="s">
-        <v>492</v>
-      </c>
-      <c r="B48" s="200" t="s">
-        <v>610</v>
-      </c>
-      <c r="C48" s="200" t="s">
-        <v>654</v>
-      </c>
-      <c r="D48" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E48" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F48" s="5">
-        <v>700000</v>
-      </c>
-      <c r="G48" s="5">
-        <v>700000</v>
-      </c>
-      <c r="H48" s="5">
-        <v>800000</v>
-      </c>
-      <c r="I48" s="5">
-        <v>700000</v>
-      </c>
-      <c r="J48" s="5">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="160" t="s">
-        <v>493</v>
-      </c>
-      <c r="B49" s="200" t="s">
-        <v>611</v>
-      </c>
-      <c r="C49" s="200" t="s">
-        <v>635</v>
-      </c>
-      <c r="D49" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E49" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F49" s="5">
-        <v>1600</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="161" t="s">
-        <v>494</v>
-      </c>
-      <c r="B50" s="200" t="s">
-        <v>577</v>
-      </c>
-      <c r="C50" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D50" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E50" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F50" s="5">
-        <v>275410</v>
-      </c>
-      <c r="G50" s="5">
-        <v>301210</v>
-      </c>
-      <c r="H50" s="5">
-        <v>305314</v>
-      </c>
-      <c r="I50" s="5">
-        <v>304964</v>
-      </c>
-      <c r="J50" s="5">
-        <v>335806</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="161" t="s">
-        <v>495</v>
-      </c>
-      <c r="B51" s="200" t="s">
-        <v>577</v>
-      </c>
-      <c r="C51" s="200" t="s">
-        <v>655</v>
-      </c>
-      <c r="D51" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="E51" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F51" s="5">
+      <c r="F96" s="5">
         <v>683118</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G96" s="5">
         <v>691389</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H96" s="5">
         <v>598438</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I96" s="5">
         <v>620202</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J96" s="5">
         <v>654971</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="160" t="s">
-        <v>496</v>
-      </c>
-      <c r="B52" s="200" t="s">
-        <v>612</v>
-      </c>
-      <c r="C52" s="200"/>
-      <c r="D52" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E52" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F52" s="5">
-        <v>42000</v>
-      </c>
-      <c r="G52" s="5">
-        <v>20000</v>
-      </c>
-      <c r="H52" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I52" s="5">
-        <v>40000</v>
-      </c>
-      <c r="J52" s="5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="161" t="s">
-        <v>497</v>
-      </c>
-      <c r="B53" s="200" t="s">
-        <v>613</v>
-      </c>
-      <c r="C53" s="200" t="s">
-        <v>497</v>
-      </c>
-      <c r="D53" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E53" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="F53" s="5">
-        <v>11541</v>
-      </c>
-      <c r="G53" s="5">
-        <v>11383</v>
-      </c>
-      <c r="H53" s="5">
-        <v>12412</v>
-      </c>
-      <c r="I53" s="5">
-        <v>13184</v>
-      </c>
-      <c r="J53" s="5">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="161" t="s">
-        <v>498</v>
-      </c>
-      <c r="B54" s="200" t="s">
-        <v>613</v>
-      </c>
-      <c r="C54" s="204" t="s">
-        <v>498</v>
-      </c>
-      <c r="D54" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E54" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F54" s="5">
-        <v>12167</v>
-      </c>
-      <c r="G54" s="5">
-        <v>11693</v>
-      </c>
-      <c r="H54" s="5">
-        <v>12706</v>
-      </c>
-      <c r="I54" s="5">
-        <v>13554</v>
-      </c>
-      <c r="J54" s="5">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="160" t="s">
-        <v>499</v>
-      </c>
-      <c r="B55" s="200" t="s">
-        <v>615</v>
-      </c>
-      <c r="C55" s="200"/>
-      <c r="D55" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E55" s="158" t="s">
-        <v>500</v>
-      </c>
-      <c r="F55" s="5">
-        <v>11677</v>
-      </c>
-      <c r="G55" s="5">
-        <v>13036</v>
-      </c>
-      <c r="H55" s="5">
-        <v>23234</v>
-      </c>
-      <c r="I55" s="5">
-        <v>23194</v>
-      </c>
-      <c r="J55" s="5">
-        <v>18638</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="160" t="s">
-        <v>501</v>
-      </c>
-      <c r="B56" s="200" t="s">
-        <v>616</v>
-      </c>
-      <c r="C56" s="200" t="s">
-        <v>595</v>
-      </c>
-      <c r="D56" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E56" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="F56" s="5">
-        <v>614</v>
-      </c>
-      <c r="G56" s="5">
-        <v>571</v>
-      </c>
-      <c r="H56" s="5">
-        <v>612</v>
-      </c>
-      <c r="I56" s="5">
-        <v>565</v>
-      </c>
-      <c r="J56" s="5">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="160" t="s">
-        <v>502</v>
-      </c>
-      <c r="B57" s="200" t="s">
-        <v>502</v>
-      </c>
-      <c r="C57" s="200"/>
-      <c r="D57" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E57" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I57" s="5">
-        <v>35000</v>
-      </c>
-      <c r="J57" s="5">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="160" t="s">
-        <v>503</v>
-      </c>
-      <c r="B58" s="200" t="s">
-        <v>617</v>
-      </c>
-      <c r="C58" s="200"/>
-      <c r="D58" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E58" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F58" s="5">
-        <v>8233</v>
-      </c>
-      <c r="G58" s="5">
-        <v>154</v>
-      </c>
-      <c r="H58" s="5">
-        <v>89</v>
-      </c>
-      <c r="I58" s="5">
-        <v>87</v>
-      </c>
-      <c r="J58" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="160" t="s">
-        <v>504</v>
-      </c>
-      <c r="B59" s="200" t="s">
-        <v>620</v>
-      </c>
-      <c r="C59" s="200" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E59" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="5">
-        <v>14000</v>
-      </c>
-      <c r="I59" s="5">
-        <v>11000</v>
-      </c>
-      <c r="J59" s="5">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="160" t="s">
-        <v>505</v>
-      </c>
-      <c r="B60" s="200" t="s">
-        <v>621</v>
-      </c>
-      <c r="C60" s="200"/>
-      <c r="D60" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E60" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="F60" s="5">
-        <v>1726</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1679</v>
-      </c>
-      <c r="H60" s="5">
-        <v>3001</v>
-      </c>
-      <c r="I60" s="5">
-        <v>3240</v>
-      </c>
-      <c r="J60" s="5">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="160" t="s">
-        <v>506</v>
-      </c>
-      <c r="B61" s="200" t="s">
-        <v>506</v>
-      </c>
-      <c r="C61" s="200"/>
-      <c r="D61" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E61" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F61" s="5">
-        <v>1852</v>
-      </c>
-      <c r="G61" s="5">
-        <v>1807</v>
-      </c>
-      <c r="H61" s="5">
-        <v>1842</v>
-      </c>
-      <c r="I61" s="5">
-        <v>1785</v>
-      </c>
-      <c r="J61" s="5">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="160" t="s">
-        <v>507</v>
-      </c>
-      <c r="B62" s="200" t="s">
-        <v>618</v>
-      </c>
-      <c r="C62" s="200" t="s">
-        <v>656</v>
-      </c>
-      <c r="D62" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E62" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" s="5">
-        <v>114000</v>
-      </c>
-      <c r="J62" s="5">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="160" t="s">
-        <v>508</v>
-      </c>
-      <c r="B63" s="200" t="s">
-        <v>657</v>
-      </c>
-      <c r="C63" s="200"/>
-      <c r="D63" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E63" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F63" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G63" s="5">
-        <v>150000</v>
-      </c>
-      <c r="H63" s="5">
-        <v>150000</v>
-      </c>
-      <c r="I63" s="5">
-        <v>150000</v>
-      </c>
-      <c r="J63" s="5">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="160" t="s">
-        <v>509</v>
-      </c>
-      <c r="B64" s="200" t="s">
-        <v>509</v>
-      </c>
-      <c r="C64" s="200"/>
-      <c r="D64" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E64" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" s="5">
-        <v>22000</v>
-      </c>
-      <c r="H64" s="5">
-        <v>22000</v>
-      </c>
-      <c r="I64" s="5">
-        <v>21000</v>
-      </c>
-      <c r="J64" s="5">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="160" t="s">
-        <v>510</v>
-      </c>
-      <c r="B65" s="200" t="s">
-        <v>622</v>
-      </c>
-      <c r="C65" s="200"/>
-      <c r="D65" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E65" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F65" s="5">
-        <v>4004000</v>
-      </c>
-      <c r="G65" s="5">
-        <v>4133000</v>
-      </c>
-      <c r="H65" s="5">
-        <v>3745000</v>
-      </c>
-      <c r="I65" s="5">
-        <v>3832000</v>
-      </c>
-      <c r="J65" s="5">
-        <v>3937000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="160" t="s">
-        <v>511</v>
-      </c>
-      <c r="B66" s="200" t="s">
-        <v>623</v>
-      </c>
-      <c r="C66" s="200" t="s">
-        <v>623</v>
-      </c>
-      <c r="D66" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E66" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="F66" s="5">
-        <v>11462</v>
-      </c>
-      <c r="G66" s="5">
-        <v>10790</v>
-      </c>
-      <c r="H66" s="5">
-        <v>12563</v>
-      </c>
-      <c r="I66" s="5">
-        <v>14024</v>
-      </c>
-      <c r="J66" s="5">
-        <v>12770</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="160" t="s">
-        <v>512</v>
-      </c>
-      <c r="B67" s="200" t="s">
-        <v>512</v>
-      </c>
-      <c r="C67" s="200"/>
-      <c r="D67" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E67" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F67" s="5">
-        <v>14343</v>
-      </c>
-      <c r="G67" s="5">
-        <v>10252</v>
-      </c>
-      <c r="H67" s="5">
-        <v>11424</v>
-      </c>
-      <c r="I67" s="5">
-        <v>10713</v>
-      </c>
-      <c r="J67" s="5">
-        <v>10243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="160" t="s">
-        <v>513</v>
-      </c>
-      <c r="B68" s="200" t="s">
-        <v>632</v>
-      </c>
-      <c r="C68" s="200"/>
-      <c r="D68" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E68" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F68" s="5">
-        <v>2053</v>
-      </c>
-      <c r="G68" s="5">
-        <v>2256</v>
-      </c>
-      <c r="H68" s="5">
-        <v>2540</v>
-      </c>
-      <c r="I68" s="5">
-        <v>4864</v>
-      </c>
-      <c r="J68" s="5">
-        <v>4740</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="161" t="s">
-        <v>514</v>
-      </c>
-      <c r="B69" s="200" t="s">
-        <v>632</v>
-      </c>
-      <c r="C69" s="200" t="s">
-        <v>658</v>
-      </c>
-      <c r="D69" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E69" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F69" s="5">
-        <v>228030</v>
-      </c>
-      <c r="G69" s="5">
-        <v>280550</v>
-      </c>
-      <c r="H69" s="5">
-        <v>231219</v>
-      </c>
-      <c r="I69" s="5">
-        <v>245815</v>
-      </c>
-      <c r="J69" s="5">
-        <v>243818</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="161" t="s">
-        <v>515</v>
-      </c>
-      <c r="B70" s="200" t="s">
-        <v>624</v>
-      </c>
-      <c r="C70" s="200" t="s">
-        <v>624</v>
-      </c>
-      <c r="D70" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E70" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F70" s="167">
-        <v>158034</v>
-      </c>
-      <c r="G70" s="167">
-        <v>160016</v>
-      </c>
-      <c r="H70" s="167">
-        <v>169518</v>
-      </c>
-      <c r="I70" s="167">
-        <v>188974</v>
-      </c>
-      <c r="J70" s="167">
-        <v>177733</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="161" t="s">
-        <v>516</v>
-      </c>
-      <c r="B71" s="200" t="s">
-        <v>625</v>
-      </c>
-      <c r="C71" s="200" t="s">
-        <v>516</v>
-      </c>
-      <c r="D71" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E71" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F71" s="5">
-        <v>558</v>
-      </c>
-      <c r="G71" s="5">
-        <v>635</v>
-      </c>
-      <c r="H71" s="5">
-        <v>524</v>
-      </c>
-      <c r="I71" s="5">
-        <v>505</v>
-      </c>
-      <c r="J71" s="5">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="161" t="s">
-        <v>517</v>
-      </c>
-      <c r="B72" s="200" t="s">
-        <v>625</v>
-      </c>
-      <c r="C72" s="200" t="s">
-        <v>517</v>
-      </c>
-      <c r="D72" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E72" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F72" s="169">
-        <v>5187</v>
-      </c>
-      <c r="G72" s="169">
-        <v>4746</v>
-      </c>
-      <c r="H72" s="169">
-        <v>4803</v>
-      </c>
-      <c r="I72" s="169">
-        <v>4828</v>
-      </c>
-      <c r="J72" s="169">
-        <v>6418</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="200" t="s">
-        <v>625</v>
-      </c>
-      <c r="C73" s="200" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E73" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F73" s="5">
-        <v>5750</v>
-      </c>
-      <c r="G73" s="5">
-        <v>5380</v>
-      </c>
-      <c r="H73" s="5">
-        <v>5330</v>
-      </c>
-      <c r="I73" s="5">
-        <v>5330</v>
-      </c>
-      <c r="J73" s="5">
-        <v>6940</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="160" t="s">
-        <v>518</v>
-      </c>
-      <c r="B74" s="200" t="s">
-        <v>619</v>
-      </c>
-      <c r="C74" s="200" t="s">
-        <v>636</v>
-      </c>
-      <c r="D74" s="200" t="s">
-        <v>589</v>
-      </c>
-      <c r="E74" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F74" s="166">
-        <v>175</v>
-      </c>
-      <c r="G74" s="166">
-        <v>199</v>
-      </c>
-      <c r="H74" s="166">
-        <v>215</v>
-      </c>
-      <c r="I74" s="166">
-        <v>279</v>
-      </c>
-      <c r="J74" s="166">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="161" t="s">
-        <v>519</v>
-      </c>
-      <c r="B75" s="200" t="s">
-        <v>626</v>
-      </c>
-      <c r="C75" s="200" t="s">
-        <v>519</v>
-      </c>
-      <c r="D75" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E75" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="F75" s="5">
-        <v>4340</v>
-      </c>
-      <c r="G75" s="5">
-        <v>4290</v>
-      </c>
-      <c r="H75" s="5">
-        <v>4250</v>
-      </c>
-      <c r="I75" s="5">
-        <v>3800</v>
-      </c>
-      <c r="J75" s="5">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="161" t="s">
-        <v>520</v>
-      </c>
-      <c r="B76" s="200" t="s">
-        <v>626</v>
-      </c>
-      <c r="C76" s="200" t="s">
-        <v>520</v>
-      </c>
-      <c r="D76" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E76" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F76" s="5">
-        <v>8060</v>
-      </c>
-      <c r="G76" s="5">
-        <v>7970</v>
-      </c>
-      <c r="H76" s="5">
-        <v>7900</v>
-      </c>
-      <c r="I76" s="5">
-        <v>7060</v>
-      </c>
-      <c r="J76" s="5">
-        <v>6730</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="161" t="s">
-        <v>521</v>
-      </c>
-      <c r="B77" s="200" t="s">
-        <v>626</v>
-      </c>
-      <c r="C77" s="200" t="s">
-        <v>521</v>
-      </c>
-      <c r="D77" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E77" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F77" s="5">
-        <v>27900</v>
-      </c>
-      <c r="G77" s="5">
-        <v>27600</v>
-      </c>
-      <c r="H77" s="5">
-        <v>27300</v>
-      </c>
-      <c r="I77" s="5">
-        <v>24400</v>
-      </c>
-      <c r="J77" s="5">
-        <v>23300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="161" t="s">
-        <v>522</v>
-      </c>
-      <c r="B78" s="200" t="s">
-        <v>626</v>
-      </c>
-      <c r="C78" s="200" t="s">
-        <v>522</v>
-      </c>
-      <c r="D78" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E78" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F78" s="169">
-        <v>21700</v>
-      </c>
-      <c r="G78" s="169">
-        <v>21500</v>
-      </c>
-      <c r="H78" s="169">
-        <v>21300</v>
-      </c>
-      <c r="I78" s="169">
-        <v>19000</v>
-      </c>
-      <c r="J78" s="169">
-        <v>18100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="200" t="s">
-        <v>626</v>
-      </c>
-      <c r="C79" s="200" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E79" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F79" s="5">
-        <v>62000</v>
-      </c>
-      <c r="G79" s="5">
-        <v>61300</v>
-      </c>
-      <c r="H79" s="5">
-        <v>60800</v>
-      </c>
-      <c r="I79" s="5">
-        <v>54300</v>
-      </c>
-      <c r="J79" s="5">
-        <v>51800</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="160" t="s">
-        <v>523</v>
-      </c>
-      <c r="B80" s="200" t="s">
-        <v>563</v>
-      </c>
-      <c r="C80" s="200" t="s">
-        <v>659</v>
-      </c>
-      <c r="D80" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E80" s="158" t="s">
-        <v>524</v>
-      </c>
-      <c r="F80" s="5">
-        <v>154633</v>
-      </c>
-      <c r="G80" s="5">
-        <v>159854</v>
-      </c>
-      <c r="H80" s="5">
-        <v>166278</v>
-      </c>
-      <c r="I80" s="5">
-        <v>172725</v>
-      </c>
-      <c r="J80" s="5">
-        <v>170890</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="160" t="s">
-        <v>525</v>
-      </c>
-      <c r="B81" s="200" t="s">
-        <v>567</v>
-      </c>
-      <c r="C81" s="200" t="s">
-        <v>567</v>
-      </c>
-      <c r="D81" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E81" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="F81" s="5">
-        <v>1297</v>
-      </c>
-      <c r="G81" s="5">
-        <v>1452</v>
-      </c>
-      <c r="H81" s="5">
-        <v>1459</v>
-      </c>
-      <c r="I81" s="5">
-        <v>1306</v>
-      </c>
-      <c r="J81" s="5">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="161" t="s">
-        <v>526</v>
-      </c>
-      <c r="B82" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C82" s="200" t="s">
-        <v>526</v>
-      </c>
-      <c r="D82" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E82" s="158" t="s">
-        <v>527</v>
-      </c>
-      <c r="F82" s="166">
-        <v>1601985</v>
-      </c>
-      <c r="G82" s="166">
-        <v>1631550</v>
-      </c>
-      <c r="H82" s="166">
-        <v>1838505</v>
-      </c>
-      <c r="I82" s="166">
-        <v>2007865</v>
-      </c>
-      <c r="J82" s="166">
-        <v>2062615</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="161" t="s">
-        <v>528</v>
-      </c>
-      <c r="B83" s="205" t="s">
-        <v>627</v>
-      </c>
-      <c r="C83" s="200" t="s">
-        <v>637</v>
-      </c>
-      <c r="D83" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E83" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F83" s="167">
-        <v>317563</v>
-      </c>
-      <c r="G83" s="167">
-        <v>360328</v>
-      </c>
-      <c r="H83" s="167">
-        <v>370508</v>
-      </c>
-      <c r="I83" s="167">
-        <v>236285</v>
-      </c>
-      <c r="J83" s="167">
-        <v>248900</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="161" t="s">
-        <v>464</v>
-      </c>
-      <c r="B84" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C84" s="200" t="s">
-        <v>596</v>
-      </c>
-      <c r="D84" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E84" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F84" s="162"/>
-      <c r="G84" s="162"/>
-      <c r="H84" s="162"/>
-      <c r="I84" s="162"/>
-      <c r="J84" s="162"/>
-    </row>
-    <row r="85" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="163" t="s">
-        <v>529</v>
-      </c>
-      <c r="B85" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C85" s="200" t="s">
-        <v>529</v>
-      </c>
-      <c r="D85" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E85" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F85" s="5">
-        <v>25445</v>
-      </c>
-      <c r="G85" s="5">
-        <v>28892</v>
-      </c>
-      <c r="H85" s="5">
-        <v>31388</v>
-      </c>
-      <c r="I85" s="5">
-        <v>25000</v>
-      </c>
-      <c r="J85" s="5">
-        <v>22600</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="163" t="s">
-        <v>530</v>
-      </c>
-      <c r="B86" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C86" s="200" t="s">
-        <v>530</v>
-      </c>
-      <c r="D86" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E86" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F86" s="5">
-        <v>176595</v>
-      </c>
-      <c r="G86" s="5">
-        <v>175300</v>
-      </c>
-      <c r="H86" s="5">
-        <v>193261</v>
-      </c>
-      <c r="I86" s="5">
-        <v>208000</v>
-      </c>
-      <c r="J86" s="5">
-        <v>188000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="163" t="s">
-        <v>531</v>
-      </c>
-      <c r="B87" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C87" s="200" t="s">
-        <v>628</v>
-      </c>
-      <c r="D87" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E87" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="164" t="s">
-        <v>532</v>
-      </c>
-      <c r="B88" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C88" s="200" t="s">
-        <v>532</v>
-      </c>
-      <c r="D88" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E88" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F88" s="5">
-        <v>31263</v>
-      </c>
-      <c r="G88" s="5">
-        <v>27150</v>
-      </c>
-      <c r="H88" s="5">
-        <v>31275</v>
-      </c>
-      <c r="I88" s="5">
-        <v>21000</v>
-      </c>
-      <c r="J88" s="5">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="164" t="s">
-        <v>533</v>
-      </c>
-      <c r="B89" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C89" s="200" t="s">
-        <v>533</v>
-      </c>
-      <c r="D89" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E89" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F89" s="5">
-        <v>35206</v>
-      </c>
-      <c r="G89" s="5">
-        <v>26936</v>
-      </c>
-      <c r="H89" s="5">
-        <v>25653</v>
-      </c>
-      <c r="I89" s="5">
-        <v>21000</v>
-      </c>
-      <c r="J89" s="5">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="163" t="s">
-        <v>534</v>
-      </c>
-      <c r="B90" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C90" s="200" t="s">
-        <v>629</v>
-      </c>
-      <c r="D90" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E90" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="164" t="s">
-        <v>535</v>
-      </c>
-      <c r="B91" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C91" s="200" t="s">
-        <v>535</v>
-      </c>
-      <c r="D91" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E91" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F91" s="5">
-        <v>26810</v>
-      </c>
-      <c r="G91" s="5">
-        <v>35954</v>
-      </c>
-      <c r="H91" s="5">
-        <v>44463</v>
-      </c>
-      <c r="I91" s="5">
-        <v>69000</v>
-      </c>
-      <c r="J91" s="5">
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="164" t="s">
-        <v>536</v>
-      </c>
-      <c r="B92" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C92" s="200" t="s">
-        <v>536</v>
-      </c>
-      <c r="D92" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E92" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F92" s="5">
-        <v>258126</v>
-      </c>
-      <c r="G92" s="5">
-        <v>271848</v>
-      </c>
-      <c r="H92" s="5">
-        <v>284326</v>
-      </c>
-      <c r="I92" s="5">
-        <v>291000</v>
-      </c>
-      <c r="J92" s="5">
-        <v>263000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="163" t="s">
-        <v>537</v>
-      </c>
-      <c r="B93" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C93" s="200" t="s">
-        <v>630</v>
-      </c>
-      <c r="D93" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E93" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F93" s="5">
-        <v>9717</v>
-      </c>
-      <c r="G93" s="5">
-        <v>7893</v>
-      </c>
-      <c r="H93" s="5">
-        <v>7119</v>
-      </c>
-      <c r="I93" s="5">
-        <v>5700</v>
-      </c>
-      <c r="J93" s="5">
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="163" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C94" s="200" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E94" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F94" s="169">
-        <v>84688</v>
-      </c>
-      <c r="G94" s="169">
-        <v>86467</v>
-      </c>
-      <c r="H94" s="169">
-        <v>65940</v>
-      </c>
-      <c r="I94" s="169">
-        <v>53000</v>
-      </c>
-      <c r="J94" s="169">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="164" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="200" t="s">
-        <v>627</v>
-      </c>
-      <c r="C95" s="200" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E95" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="F95" s="5">
-        <v>648000</v>
-      </c>
-      <c r="G95" s="5">
-        <v>660000</v>
-      </c>
-      <c r="H95" s="5">
-        <v>683000</v>
-      </c>
-      <c r="I95" s="5">
-        <v>694000</v>
-      </c>
-      <c r="J95" s="5">
-        <v>628000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="160" t="s">
-        <v>538</v>
-      </c>
-      <c r="B96" s="200" t="s">
-        <v>631</v>
-      </c>
-      <c r="C96" s="200" t="s">
-        <v>638</v>
-      </c>
-      <c r="D96" s="200" t="s">
-        <v>590</v>
-      </c>
-      <c r="E96" s="158" t="s">
-        <v>663</v>
-      </c>
-      <c r="F96" s="5">
-        <v>13279</v>
-      </c>
-      <c r="G96" s="5">
-        <v>14133</v>
-      </c>
-      <c r="H96" s="5">
-        <v>12207</v>
-      </c>
-      <c r="I96" s="5">
-        <v>6975</v>
-      </c>
-      <c r="J96" s="5">
-        <v>6796</v>
-      </c>
-    </row>
     <row r="97" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="176" t="s">
+      <c r="A97" s="172" t="s">
         <v>539</v>
       </c>
-      <c r="B97" s="174"/>
-      <c r="C97" s="174"/>
-      <c r="D97" s="174"/>
-      <c r="E97" s="174"/>
-      <c r="F97" s="174"/>
-      <c r="G97" s="174"/>
-      <c r="H97" s="174"/>
-      <c r="I97" s="174"/>
-      <c r="J97" s="174"/>
+      <c r="B97" s="173"/>
+      <c r="C97" s="173"/>
+      <c r="D97" s="173"/>
+      <c r="E97" s="173"/>
+      <c r="F97" s="173"/>
+      <c r="G97" s="173"/>
+      <c r="H97" s="173"/>
+      <c r="I97" s="173"/>
+      <c r="J97" s="173"/>
     </row>
     <row r="98" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="177" t="s">
+      <c r="A98" s="145" t="s">
         <v>540</v>
       </c>
-      <c r="B98" s="178"/>
-      <c r="C98" s="178"/>
-      <c r="D98" s="178"/>
-      <c r="E98" s="178"/>
-      <c r="F98" s="178"/>
-      <c r="G98" s="178"/>
-      <c r="H98" s="178"/>
-      <c r="I98" s="178"/>
-      <c r="J98" s="178"/>
+      <c r="B98" s="146"/>
+      <c r="C98" s="146"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="146"/>
+      <c r="F98" s="146"/>
+      <c r="G98" s="146"/>
+      <c r="H98" s="146"/>
+      <c r="I98" s="146"/>
+      <c r="J98" s="146"/>
     </row>
     <row r="99" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="178" t="s">
+      <c r="A99" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="B99" s="179"/>
-      <c r="C99" s="179"/>
-      <c r="D99" s="179"/>
-      <c r="E99" s="179"/>
-      <c r="F99" s="179"/>
-      <c r="G99" s="179"/>
-      <c r="H99" s="179"/>
-      <c r="I99" s="179"/>
-      <c r="J99" s="179"/>
+      <c r="B99" s="147"/>
+      <c r="C99" s="147"/>
+      <c r="D99" s="147"/>
+      <c r="E99" s="147"/>
+      <c r="F99" s="147"/>
+      <c r="G99" s="147"/>
+      <c r="H99" s="147"/>
+      <c r="I99" s="147"/>
+      <c r="J99" s="147"/>
     </row>
     <row r="100" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="157" t="s">
+      <c r="A100" s="174" t="s">
         <v>542</v>
       </c>
-      <c r="B100" s="180"/>
-      <c r="C100" s="180"/>
-      <c r="D100" s="180"/>
-      <c r="E100" s="180"/>
-      <c r="F100" s="180"/>
-      <c r="G100" s="180"/>
-      <c r="H100" s="180"/>
-      <c r="I100" s="180"/>
-      <c r="J100" s="180"/>
+      <c r="B100" s="175"/>
+      <c r="C100" s="175"/>
+      <c r="D100" s="175"/>
+      <c r="E100" s="175"/>
+      <c r="F100" s="175"/>
+      <c r="G100" s="175"/>
+      <c r="H100" s="175"/>
+      <c r="I100" s="175"/>
+      <c r="J100" s="175"/>
     </row>
     <row r="101" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="157" t="s">
+      <c r="A101" s="174" t="s">
         <v>543</v>
       </c>
-      <c r="B101" s="180"/>
-      <c r="C101" s="180"/>
-      <c r="D101" s="180"/>
-      <c r="E101" s="180"/>
-      <c r="F101" s="180"/>
-      <c r="G101" s="180"/>
-      <c r="H101" s="180"/>
-      <c r="I101" s="180"/>
-      <c r="J101" s="180"/>
+      <c r="B101" s="175"/>
+      <c r="C101" s="175"/>
+      <c r="D101" s="175"/>
+      <c r="E101" s="175"/>
+      <c r="F101" s="175"/>
+      <c r="G101" s="175"/>
+      <c r="H101" s="175"/>
+      <c r="I101" s="175"/>
+      <c r="J101" s="175"/>
     </row>
     <row r="102" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="157" t="s">
+      <c r="A102" s="174" t="s">
         <v>544</v>
       </c>
-      <c r="B102" s="180"/>
-      <c r="C102" s="180"/>
-      <c r="D102" s="180"/>
-      <c r="E102" s="180"/>
-      <c r="F102" s="180"/>
-      <c r="G102" s="180"/>
-      <c r="H102" s="180"/>
-      <c r="I102" s="180"/>
-      <c r="J102" s="180"/>
+      <c r="B102" s="175"/>
+      <c r="C102" s="175"/>
+      <c r="D102" s="175"/>
+      <c r="E102" s="175"/>
+      <c r="F102" s="175"/>
+      <c r="G102" s="175"/>
+      <c r="H102" s="175"/>
+      <c r="I102" s="175"/>
+      <c r="J102" s="175"/>
     </row>
     <row r="103" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="157" t="s">
+      <c r="A103" s="174" t="s">
         <v>545</v>
       </c>
-      <c r="B103" s="180"/>
-      <c r="C103" s="180"/>
-      <c r="D103" s="180"/>
-      <c r="E103" s="180"/>
-      <c r="F103" s="180"/>
-      <c r="G103" s="180"/>
-      <c r="H103" s="180"/>
-      <c r="I103" s="180"/>
-      <c r="J103" s="180"/>
+      <c r="B103" s="175"/>
+      <c r="C103" s="175"/>
+      <c r="D103" s="175"/>
+      <c r="E103" s="175"/>
+      <c r="F103" s="175"/>
+      <c r="G103" s="175"/>
+      <c r="H103" s="175"/>
+      <c r="I103" s="175"/>
+      <c r="J103" s="175"/>
     </row>
     <row r="104" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="157" t="s">
+      <c r="A104" s="174" t="s">
         <v>546</v>
       </c>
-      <c r="B104" s="180"/>
-      <c r="C104" s="180"/>
-      <c r="D104" s="180"/>
-      <c r="E104" s="180"/>
-      <c r="F104" s="180"/>
-      <c r="G104" s="180"/>
-      <c r="H104" s="180"/>
-      <c r="I104" s="180"/>
-      <c r="J104" s="180"/>
+      <c r="B104" s="175"/>
+      <c r="C104" s="175"/>
+      <c r="D104" s="175"/>
+      <c r="E104" s="175"/>
+      <c r="F104" s="175"/>
+      <c r="G104" s="175"/>
+      <c r="H104" s="175"/>
+      <c r="I104" s="175"/>
+      <c r="J104" s="175"/>
     </row>
     <row r="105" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="157" t="s">
+      <c r="A105" s="174" t="s">
         <v>547</v>
       </c>
-      <c r="B105" s="180"/>
-      <c r="C105" s="180"/>
-      <c r="D105" s="180"/>
-      <c r="E105" s="180"/>
-      <c r="F105" s="180"/>
-      <c r="G105" s="180"/>
-      <c r="H105" s="180"/>
-      <c r="I105" s="180"/>
-      <c r="J105" s="180"/>
+      <c r="B105" s="175"/>
+      <c r="C105" s="175"/>
+      <c r="D105" s="175"/>
+      <c r="E105" s="175"/>
+      <c r="F105" s="175"/>
+      <c r="G105" s="175"/>
+      <c r="H105" s="175"/>
+      <c r="I105" s="175"/>
+      <c r="J105" s="175"/>
     </row>
     <row r="106" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="157" t="s">
+      <c r="A106" s="174" t="s">
         <v>548</v>
       </c>
-      <c r="B106" s="180"/>
-      <c r="C106" s="180"/>
-      <c r="D106" s="180"/>
-      <c r="E106" s="180"/>
-      <c r="F106" s="180"/>
-      <c r="G106" s="180"/>
-      <c r="H106" s="180"/>
-      <c r="I106" s="180"/>
-      <c r="J106" s="180"/>
+      <c r="B106" s="175"/>
+      <c r="C106" s="175"/>
+      <c r="D106" s="175"/>
+      <c r="E106" s="175"/>
+      <c r="F106" s="175"/>
+      <c r="G106" s="175"/>
+      <c r="H106" s="175"/>
+      <c r="I106" s="175"/>
+      <c r="J106" s="175"/>
     </row>
     <row r="107" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="157" t="s">
+      <c r="A107" s="174" t="s">
         <v>549</v>
       </c>
-      <c r="B107" s="180"/>
-      <c r="C107" s="180"/>
-      <c r="D107" s="180"/>
-      <c r="E107" s="180"/>
-      <c r="F107" s="180"/>
-      <c r="G107" s="180"/>
-      <c r="H107" s="180"/>
-      <c r="I107" s="180"/>
-      <c r="J107" s="180"/>
+      <c r="B107" s="175"/>
+      <c r="C107" s="175"/>
+      <c r="D107" s="175"/>
+      <c r="E107" s="175"/>
+      <c r="F107" s="175"/>
+      <c r="G107" s="175"/>
+      <c r="H107" s="175"/>
+      <c r="I107" s="175"/>
+      <c r="J107" s="175"/>
     </row>
     <row r="108" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="157" t="s">
+      <c r="A108" s="174" t="s">
         <v>550</v>
       </c>
-      <c r="B108" s="180"/>
-      <c r="C108" s="180"/>
-      <c r="D108" s="180"/>
-      <c r="E108" s="180"/>
-      <c r="F108" s="180"/>
-      <c r="G108" s="180"/>
-      <c r="H108" s="180"/>
-      <c r="I108" s="180"/>
-      <c r="J108" s="180"/>
+      <c r="B108" s="175"/>
+      <c r="C108" s="175"/>
+      <c r="D108" s="175"/>
+      <c r="E108" s="175"/>
+      <c r="F108" s="175"/>
+      <c r="G108" s="175"/>
+      <c r="H108" s="175"/>
+      <c r="I108" s="175"/>
+      <c r="J108" s="175"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="A107:J107"/>
-    <mergeCell ref="A108:J108"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A101:J101"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A103:J103"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="A99:J99"/>
-  </mergeCells>
+  <autoFilter ref="A1:K1" xr:uid="{C0DD5C7D-DEAC-4BFE-8605-451BD2406F50}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K108">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13194,372 +13249,372 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" style="182" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="182" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="182" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="182" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="7.21875" style="182"/>
+    <col min="1" max="1" width="35" style="148" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="148" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="148" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="148" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="7.21875" style="148"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="156" t="s">
         <v>551</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="157" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="158" t="s">
         <v>552</v>
       </c>
-      <c r="D1" s="185"/>
+      <c r="D1" s="151"/>
     </row>
     <row r="2" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="149" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C2" s="185">
+      <c r="C2" s="151">
         <v>120</v>
       </c>
-      <c r="D2" s="187"/>
+      <c r="D2" s="153"/>
     </row>
     <row r="3" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="149" t="s">
         <v>554</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="150" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="185">
+      <c r="C3" s="151">
         <v>6583</v>
       </c>
-      <c r="D3" s="187">
+      <c r="D3" s="153">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="149" t="s">
         <v>556</v>
       </c>
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="151">
         <v>220</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="153"/>
     </row>
     <row r="5" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="149" t="s">
         <v>557</v>
       </c>
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="185">
+      <c r="C5" s="151">
         <v>8196</v>
       </c>
-      <c r="D5" s="187">
+      <c r="D5" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="149" t="s">
         <v>558</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="150" t="s">
         <v>559</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="151">
         <v>2696</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="149" t="s">
         <v>560</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="150" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="185">
+      <c r="C7" s="151">
         <v>6000</v>
       </c>
-      <c r="D7" s="187">
+      <c r="D7" s="153">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="149" t="s">
         <v>561</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8" s="151">
         <v>116</v>
       </c>
-      <c r="D8" s="187">
+      <c r="D8" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="149" t="s">
         <v>562</v>
       </c>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="151">
         <v>80</v>
       </c>
-      <c r="D9" s="187">
+      <c r="D9" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="149" t="s">
         <v>563</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="150" t="s">
         <v>564</v>
       </c>
-      <c r="C10" s="188">
+      <c r="C10" s="154">
         <v>2</v>
       </c>
-      <c r="D10" s="187">
+      <c r="D10" s="153">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="149" t="s">
         <v>565</v>
       </c>
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C11" s="185">
+      <c r="C11" s="151">
         <v>2296</v>
       </c>
-      <c r="D11" s="187">
+      <c r="D11" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="149" t="s">
         <v>566</v>
       </c>
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="151">
         <v>1600</v>
       </c>
-      <c r="D12" s="187"/>
+      <c r="D12" s="153"/>
     </row>
     <row r="13" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="183" t="s">
+      <c r="A13" s="149" t="s">
         <v>567</v>
       </c>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="150" t="s">
         <v>555</v>
       </c>
-      <c r="C13" s="189">
+      <c r="C13" s="155">
         <v>720</v>
       </c>
-      <c r="D13" s="187"/>
+      <c r="D13" s="153"/>
     </row>
     <row r="14" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="149" t="s">
         <v>568</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="150" t="s">
         <v>569</v>
       </c>
-      <c r="C14" s="188">
+      <c r="C14" s="154">
         <v>167.7</v>
       </c>
-      <c r="D14" s="187">
+      <c r="D14" s="153">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="149" t="s">
         <v>570</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="150" t="s">
         <v>559</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="151">
         <v>310</v>
       </c>
-      <c r="D15" s="187">
+      <c r="D15" s="153">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="183" t="s">
+      <c r="A16" s="149" t="s">
         <v>571</v>
       </c>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="150" t="s">
         <v>555</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="151">
         <v>1200</v>
       </c>
-      <c r="D16" s="187">
+      <c r="D16" s="153">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="149" t="s">
         <v>572</v>
       </c>
-      <c r="B17" s="186" t="s">
+      <c r="B17" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="151">
         <v>15000</v>
       </c>
-      <c r="D17" s="187">
+      <c r="D17" s="153">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="149" t="s">
         <v>573</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="150" t="s">
         <v>559</v>
       </c>
-      <c r="C18" s="189">
+      <c r="C18" s="155">
         <v>6000</v>
       </c>
-      <c r="D18" s="187"/>
+      <c r="D18" s="153"/>
     </row>
     <row r="19" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="183" t="s">
+      <c r="A19" s="149" t="s">
         <v>574</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="150" t="s">
         <v>470</v>
       </c>
-      <c r="C19" s="185">
+      <c r="C19" s="151">
         <v>4754</v>
       </c>
-      <c r="D19" s="187">
+      <c r="D19" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="149" t="s">
         <v>575</v>
       </c>
-      <c r="B20" s="186" t="s">
+      <c r="B20" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C20" s="185">
+      <c r="C20" s="151">
         <v>118823</v>
       </c>
-      <c r="D20" s="187">
+      <c r="D20" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="149" t="s">
         <v>576</v>
       </c>
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C21" s="185">
+      <c r="C21" s="151">
         <v>565</v>
       </c>
-      <c r="D21" s="187">
+      <c r="D21" s="153">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="183" t="s">
+      <c r="A22" s="149" t="s">
         <v>577</v>
       </c>
-      <c r="B22" s="186" t="s">
+      <c r="B22" s="152" t="s">
         <v>468</v>
       </c>
-      <c r="C22" s="185">
+      <c r="C22" s="151">
         <v>1936</v>
       </c>
-      <c r="D22" s="187">
+      <c r="D22" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="190" t="s">
+      <c r="A23" s="187" t="s">
         <v>578</v>
       </c>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
     </row>
     <row r="24" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="191" t="s">
+      <c r="A24" s="185" t="s">
         <v>579</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
     </row>
     <row r="25" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="191" t="s">
+      <c r="A25" s="185" t="s">
         <v>580</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
     </row>
     <row r="26" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="191" t="s">
+      <c r="A26" s="185" t="s">
         <v>581</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
     </row>
     <row r="27" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="191" t="s">
+      <c r="A27" s="185" t="s">
         <v>582</v>
       </c>
-      <c r="B27" s="192"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
     </row>
     <row r="28" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="185" t="s">
         <v>583</v>
       </c>
-      <c r="B28" s="192"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
     </row>
     <row r="29" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="191" t="s">
+      <c r="A29" s="185" t="s">
         <v>584</v>
       </c>
-      <c r="B29" s="192"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
     </row>
     <row r="30" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="191" t="s">
+      <c r="A30" s="185" t="s">
         <v>585</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19804,87 +19859,87 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A119" s="128" t="s">
+      <c r="A119" s="189" t="s">
         <v>351</v>
       </c>
-      <c r="B119" s="128"/>
-      <c r="C119" s="128"/>
-      <c r="D119" s="128"/>
-      <c r="E119" s="128"/>
-      <c r="F119" s="128"/>
-      <c r="G119" s="128"/>
-      <c r="H119" s="128"/>
-      <c r="I119" s="128"/>
+      <c r="B119" s="189"/>
+      <c r="C119" s="189"/>
+      <c r="D119" s="189"/>
+      <c r="E119" s="189"/>
+      <c r="F119" s="189"/>
+      <c r="G119" s="189"/>
+      <c r="H119" s="189"/>
+      <c r="I119" s="189"/>
       <c r="J119" s="83"/>
     </row>
     <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A120" s="129" t="s">
+      <c r="A120" s="190" t="s">
         <v>352</v>
       </c>
-      <c r="B120" s="129"/>
-      <c r="C120" s="129"/>
-      <c r="D120" s="129"/>
-      <c r="E120" s="127"/>
-      <c r="F120" s="127"/>
-      <c r="G120" s="127"/>
-      <c r="H120" s="127"/>
-      <c r="I120" s="127"/>
+      <c r="B120" s="190"/>
+      <c r="C120" s="190"/>
+      <c r="D120" s="190"/>
+      <c r="E120" s="188"/>
+      <c r="F120" s="188"/>
+      <c r="G120" s="188"/>
+      <c r="H120" s="188"/>
+      <c r="I120" s="188"/>
       <c r="J120" s="83"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="127" t="s">
+      <c r="A121" s="188" t="s">
         <v>353</v>
       </c>
-      <c r="B121" s="127"/>
-      <c r="C121" s="127"/>
-      <c r="D121" s="127"/>
-      <c r="E121" s="127"/>
-      <c r="F121" s="127"/>
-      <c r="G121" s="127"/>
-      <c r="H121" s="127"/>
-      <c r="I121" s="127"/>
+      <c r="B121" s="188"/>
+      <c r="C121" s="188"/>
+      <c r="D121" s="188"/>
+      <c r="E121" s="188"/>
+      <c r="F121" s="188"/>
+      <c r="G121" s="188"/>
+      <c r="H121" s="188"/>
+      <c r="I121" s="188"/>
       <c r="J121" s="83"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="127" t="s">
+      <c r="A122" s="188" t="s">
         <v>354</v>
       </c>
-      <c r="B122" s="127"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="127"/>
-      <c r="E122" s="127"/>
-      <c r="F122" s="127"/>
-      <c r="G122" s="127"/>
-      <c r="H122" s="127"/>
-      <c r="I122" s="127"/>
+      <c r="B122" s="188"/>
+      <c r="C122" s="188"/>
+      <c r="D122" s="188"/>
+      <c r="E122" s="188"/>
+      <c r="F122" s="188"/>
+      <c r="G122" s="188"/>
+      <c r="H122" s="188"/>
+      <c r="I122" s="188"/>
       <c r="J122" s="83"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="127" t="s">
+      <c r="A123" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="B123" s="127"/>
-      <c r="C123" s="127"/>
-      <c r="D123" s="127"/>
-      <c r="E123" s="127"/>
-      <c r="F123" s="127"/>
-      <c r="G123" s="127"/>
-      <c r="H123" s="127"/>
-      <c r="I123" s="127"/>
+      <c r="B123" s="188"/>
+      <c r="C123" s="188"/>
+      <c r="D123" s="188"/>
+      <c r="E123" s="188"/>
+      <c r="F123" s="188"/>
+      <c r="G123" s="188"/>
+      <c r="H123" s="188"/>
+      <c r="I123" s="188"/>
       <c r="J123" s="83"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="127" t="s">
+      <c r="A124" s="188" t="s">
         <v>356</v>
       </c>
-      <c r="B124" s="127"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
-      <c r="F124" s="127"/>
-      <c r="G124" s="127"/>
-      <c r="H124" s="127"/>
-      <c r="I124" s="127"/>
+      <c r="B124" s="188"/>
+      <c r="C124" s="188"/>
+      <c r="D124" s="188"/>
+      <c r="E124" s="188"/>
+      <c r="F124" s="188"/>
+      <c r="G124" s="188"/>
+      <c r="H124" s="188"/>
+      <c r="I124" s="188"/>
       <c r="J124" s="83"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -22081,86 +22136,86 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A78" s="128" t="s">
+      <c r="A78" s="189" t="s">
         <v>351</v>
       </c>
-      <c r="B78" s="128"/>
-      <c r="C78" s="128"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="128"/>
-      <c r="F78" s="128"/>
-      <c r="G78" s="128"/>
-      <c r="H78" s="128"/>
+      <c r="B78" s="189"/>
+      <c r="C78" s="189"/>
+      <c r="D78" s="189"/>
+      <c r="E78" s="189"/>
+      <c r="F78" s="189"/>
+      <c r="G78" s="189"/>
+      <c r="H78" s="189"/>
       <c r="I78" s="90"/>
       <c r="J78" s="90"/>
     </row>
     <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A79" s="129" t="s">
+      <c r="A79" s="190" t="s">
         <v>352</v>
       </c>
-      <c r="B79" s="129"/>
-      <c r="C79" s="129"/>
-      <c r="D79" s="129"/>
-      <c r="E79" s="129"/>
-      <c r="F79" s="129"/>
-      <c r="G79" s="129"/>
-      <c r="H79" s="129"/>
+      <c r="B79" s="190"/>
+      <c r="C79" s="190"/>
+      <c r="D79" s="190"/>
+      <c r="E79" s="190"/>
+      <c r="F79" s="190"/>
+      <c r="G79" s="190"/>
+      <c r="H79" s="190"/>
       <c r="I79" s="90"/>
       <c r="J79" s="90"/>
     </row>
     <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A80" s="129" t="s">
+      <c r="A80" s="190" t="s">
         <v>381</v>
       </c>
-      <c r="B80" s="129"/>
-      <c r="C80" s="129"/>
-      <c r="D80" s="129"/>
-      <c r="E80" s="129"/>
-      <c r="F80" s="129"/>
-      <c r="G80" s="129"/>
-      <c r="H80" s="129"/>
+      <c r="B80" s="190"/>
+      <c r="C80" s="190"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="190"/>
+      <c r="F80" s="190"/>
+      <c r="G80" s="190"/>
+      <c r="H80" s="190"/>
       <c r="I80" s="90"/>
       <c r="J80" s="90"/>
     </row>
     <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A81" s="128" t="s">
+      <c r="A81" s="189" t="s">
         <v>382</v>
       </c>
-      <c r="B81" s="128"/>
-      <c r="C81" s="128"/>
-      <c r="D81" s="128"/>
-      <c r="E81" s="128"/>
-      <c r="F81" s="128"/>
-      <c r="G81" s="128"/>
-      <c r="H81" s="128"/>
+      <c r="B81" s="189"/>
+      <c r="C81" s="189"/>
+      <c r="D81" s="189"/>
+      <c r="E81" s="189"/>
+      <c r="F81" s="189"/>
+      <c r="G81" s="189"/>
+      <c r="H81" s="189"/>
       <c r="I81" s="90"/>
       <c r="J81" s="90"/>
     </row>
     <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A82" s="128" t="s">
+      <c r="A82" s="189" t="s">
         <v>383</v>
       </c>
-      <c r="B82" s="128"/>
-      <c r="C82" s="128"/>
-      <c r="D82" s="128"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="128"/>
-      <c r="G82" s="128"/>
-      <c r="H82" s="128"/>
+      <c r="B82" s="189"/>
+      <c r="C82" s="189"/>
+      <c r="D82" s="189"/>
+      <c r="E82" s="189"/>
+      <c r="F82" s="189"/>
+      <c r="G82" s="189"/>
+      <c r="H82" s="189"/>
       <c r="I82" s="90"/>
       <c r="J82" s="90"/>
     </row>
     <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A83" s="129" t="s">
+      <c r="A83" s="190" t="s">
         <v>384</v>
       </c>
-      <c r="B83" s="129"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="129"/>
-      <c r="G83" s="129"/>
-      <c r="H83" s="129"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="190"/>
+      <c r="D83" s="190"/>
+      <c r="E83" s="190"/>
+      <c r="F83" s="190"/>
+      <c r="G83" s="190"/>
+      <c r="H83" s="190"/>
       <c r="I83" s="90"/>
       <c r="J83" s="90"/>
     </row>
@@ -22181,8 +22236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BACE28-CC77-4532-A558-0F3456146E15}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -23077,76 +23132,76 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="192" t="s">
         <v>397</v>
       </c>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
+      <c r="B35" s="192"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="193"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="194" t="s">
         <v>398</v>
       </c>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="135" t="s">
+      <c r="A37" s="196" t="s">
         <v>399</v>
       </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="136" t="s">
+      <c r="A38" s="197" t="s">
         <v>400</v>
       </c>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="197"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="130" t="s">
+      <c r="A39" s="191" t="s">
         <v>401</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="130" t="s">
+      <c r="A40" s="191" t="s">
         <v>402</v>
       </c>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -23166,7 +23221,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H54"/>
+      <selection activeCell="A8" sqref="A8:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -24582,112 +24637,112 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="131" t="s">
+      <c r="A55" s="192" t="s">
         <v>397</v>
       </c>
-      <c r="B55" s="131"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
+      <c r="B55" s="192"/>
+      <c r="C55" s="192"/>
+      <c r="D55" s="192"/>
+      <c r="E55" s="192"/>
+      <c r="F55" s="192"/>
+      <c r="G55" s="192"/>
+      <c r="H55" s="192"/>
     </row>
     <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="194" t="s">
         <v>438</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
+      <c r="B56" s="194"/>
+      <c r="C56" s="194"/>
+      <c r="D56" s="194"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
     </row>
     <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="199" t="s">
         <v>439</v>
       </c>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="138"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="199"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="139" t="s">
+      <c r="A58" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="B58" s="139"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
+      <c r="B58" s="200"/>
+      <c r="C58" s="200"/>
+      <c r="D58" s="200"/>
+      <c r="E58" s="200"/>
+      <c r="F58" s="200"/>
+      <c r="G58" s="200"/>
+      <c r="H58" s="200"/>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="194" t="s">
         <v>441</v>
       </c>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
+      <c r="B59" s="194"/>
+      <c r="C59" s="194"/>
+      <c r="D59" s="194"/>
+      <c r="E59" s="194"/>
+      <c r="F59" s="194"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="194"/>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A60" s="131" t="s">
+      <c r="A60" s="192" t="s">
         <v>442</v>
       </c>
-      <c r="B60" s="131"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="192"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="192"/>
+      <c r="F60" s="192"/>
+      <c r="G60" s="192"/>
+      <c r="H60" s="192"/>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="192" t="s">
         <v>443</v>
       </c>
-      <c r="B61" s="131"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="192"/>
+      <c r="F61" s="192"/>
+      <c r="G61" s="192"/>
+      <c r="H61" s="192"/>
     </row>
     <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="192" t="s">
         <v>444</v>
       </c>
-      <c r="B62" s="131"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="192"/>
+      <c r="D62" s="192"/>
+      <c r="E62" s="192"/>
+      <c r="F62" s="192"/>
+      <c r="G62" s="192"/>
+      <c r="H62" s="192"/>
     </row>
     <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="131" t="s">
+      <c r="A63" s="192" t="s">
         <v>445</v>
       </c>
-      <c r="B63" s="131"/>
-      <c r="C63" s="131"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="131"/>
+      <c r="B63" s="192"/>
+      <c r="C63" s="192"/>
+      <c r="D63" s="192"/>
+      <c r="E63" s="192"/>
+      <c r="F63" s="192"/>
+      <c r="G63" s="192"/>
+      <c r="H63" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -25224,121 +25279,121 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="192" t="s">
         <v>397</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="194" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="192" t="s">
         <v>426</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="197" t="s">
         <v>427</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="197" t="s">
         <v>428</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="197"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="197" t="s">
         <v>429</v>
       </c>
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="193" t="s">
         <v>430</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="193" t="s">
         <v>431</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="193"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="193" t="s">
         <v>432</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="193"/>
     </row>
     <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.3"/>
